--- a/raw_data/20200818_saline/20200818_Sensor2_Test_21.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_21.xlsx
@@ -1,628 +1,1044 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895E645A-7E0F-47B1-A549-EA1E129D5196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>18371.134419</v>
+        <v>18371.134419000002</v>
       </c>
       <c r="B2" s="1">
-        <v>5.103093</v>
+        <v>5.1030930000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>1239.630000</v>
+        <v>1239.6300000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-305.553000</v>
+        <v>-305.553</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>18381.186375</v>
+        <v>18381.186375000001</v>
       </c>
       <c r="G2" s="1">
-        <v>5.105885</v>
+        <v>5.1058849999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1263.870000</v>
+        <v>1263.8699999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-263.335000</v>
+        <v>-263.33499999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>18391.340439</v>
       </c>
       <c r="L2" s="1">
-        <v>5.108706</v>
+        <v>5.1087059999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>1298.900000</v>
+        <v>1298.9000000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.392000</v>
+        <v>-201.392</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>18401.531775</v>
+        <v>18401.531774999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.111537</v>
+        <v>5.1115370000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1310.600000</v>
+        <v>1310.5999999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.204000</v>
+        <v>-183.20400000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>18412.121356</v>
       </c>
       <c r="V2" s="1">
-        <v>5.114478</v>
+        <v>5.1144780000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1323.330000</v>
+        <v>1323.33</v>
       </c>
       <c r="X2" s="1">
-        <v>-169.989000</v>
+        <v>-169.989</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>18422.549742</v>
+        <v>18422.549741999999</v>
       </c>
       <c r="AA2" s="1">
         <v>5.117375</v>
       </c>
       <c r="AB2" s="1">
-        <v>1340.230000</v>
+        <v>1340.23</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.214000</v>
+        <v>-168.214</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>18432.844177</v>
+        <v>18432.844176999999</v>
       </c>
       <c r="AF2" s="1">
         <v>5.120234</v>
       </c>
       <c r="AG2" s="1">
-        <v>1352.930000</v>
+        <v>1352.93</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.136000</v>
+        <v>-178.136</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>18443.498740</v>
+        <v>18443.498739999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.123194</v>
+        <v>5.1231939999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1373.510000</v>
+        <v>1373.51</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.531000</v>
+        <v>-208.53100000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>18454.065542</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.126129</v>
+        <v>5.1261289999999997</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1395.150000</v>
+        <v>1395.15</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.737000</v>
+        <v>-252.73699999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>18465.075238</v>
+        <v>18465.075238000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.129188</v>
+        <v>5.1291880000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1419.800000</v>
+        <v>1419.8</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.129000</v>
+        <v>-313.12900000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>18476.145911</v>
@@ -631,195 +1047,195 @@
         <v>5.132263</v>
       </c>
       <c r="BA2" s="1">
-        <v>1439.170000</v>
+        <v>1439.17</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.512000</v>
+        <v>-365.512</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>18487.412536</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.135392</v>
+        <v>5.1353920000000004</v>
       </c>
       <c r="BF2" s="1">
-        <v>1525.000000</v>
+        <v>1525</v>
       </c>
       <c r="BG2" s="1">
-        <v>-614.771000</v>
+        <v>-614.77099999999996</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>18498.876570</v>
+        <v>18498.87657</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.138577</v>
+        <v>5.1385769999999997</v>
       </c>
       <c r="BK2" s="1">
-        <v>1680.330000</v>
+        <v>1680.33</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1061.110000</v>
+        <v>-1061.1099999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>18509.642731</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.141567</v>
+        <v>5.1415670000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1976.800000</v>
+        <v>1976.8</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1833.690000</v>
+        <v>-1833.69</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>18520.801229</v>
+        <v>18520.801229000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.144667</v>
+        <v>5.1446670000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2369.120000</v>
+        <v>2369.12</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2726.240000</v>
+        <v>-2726.24</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>18531.857053</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.147738</v>
+        <v>5.1477380000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2854.530000</v>
+        <v>2854.53</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3695.740000</v>
+        <v>-3695.74</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>18542.867283</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.150796</v>
+        <v>5.1507959999999997</v>
       </c>
       <c r="CE2" s="1">
-        <v>4285.160000</v>
+        <v>4285.16</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6041.590000</v>
+        <v>-6041.59</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>18371.496998</v>
+        <v>18371.496997999999</v>
       </c>
       <c r="B3" s="1">
-        <v>5.103194</v>
+        <v>5.1031940000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1239.570000</v>
+        <v>1239.57</v>
       </c>
       <c r="D3" s="1">
-        <v>-305.131000</v>
+        <v>-305.13099999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>18381.567801</v>
+        <v>18381.567801000001</v>
       </c>
       <c r="G3" s="1">
-        <v>5.105991</v>
+        <v>5.1059910000000004</v>
       </c>
       <c r="H3" s="1">
-        <v>1264.340000</v>
+        <v>1264.3399999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-262.367000</v>
+        <v>-262.36700000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>18391.718918</v>
+        <v>18391.718917999999</v>
       </c>
       <c r="L3" s="1">
-        <v>5.108811</v>
+        <v>5.1088110000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1299.080000</v>
+        <v>1299.08</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.051000</v>
+        <v>-201.05099999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>18401.939978</v>
+        <v>18401.939977999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.111650</v>
+        <v>5.11165</v>
       </c>
       <c r="R3" s="1">
-        <v>1310.670000</v>
+        <v>1310.67</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.179000</v>
+        <v>-183.179</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>18412.515645</v>
+        <v>18412.515644999999</v>
       </c>
       <c r="V3" s="1">
-        <v>5.114588</v>
+        <v>5.1145880000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>1323.430000</v>
+        <v>1323.43</v>
       </c>
       <c r="X3" s="1">
-        <v>-169.904000</v>
+        <v>-169.904</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>18422.659862</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.117406</v>
+        <v>5.1174059999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1340.300000</v>
+        <v>1340.3</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.078000</v>
+        <v>-168.078</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>18433.208241</v>
@@ -828,166 +1244,166 @@
         <v>5.120336</v>
       </c>
       <c r="AG3" s="1">
-        <v>1353.140000</v>
+        <v>1353.14</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.111000</v>
+        <v>-178.11099999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>18443.869250</v>
+        <v>18443.86925</v>
       </c>
       <c r="AK3" s="1">
         <v>5.123297</v>
       </c>
       <c r="AL3" s="1">
-        <v>1373.550000</v>
+        <v>1373.55</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.489000</v>
+        <v>-208.489</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>18454.451891</v>
+        <v>18454.451891000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>5.126237</v>
+        <v>5.1262369999999997</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1395.150000</v>
+        <v>1395.15</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.754000</v>
+        <v>-252.75399999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>18465.813252</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.129393</v>
+        <v>5.1293930000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>1419.770000</v>
+        <v>1419.77</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.136000</v>
+        <v>-313.13600000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>18476.893878</v>
+        <v>18476.893877999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.132471</v>
+        <v>5.1324709999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1439.240000</v>
+        <v>1439.24</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.532000</v>
+        <v>-365.53199999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>18487.805369</v>
+        <v>18487.805369000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>5.135501</v>
+        <v>5.1355009999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1525.010000</v>
+        <v>1525.01</v>
       </c>
       <c r="BG3" s="1">
-        <v>-614.783000</v>
+        <v>-614.78300000000002</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>18499.282825</v>
+        <v>18499.282824999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.138690</v>
+        <v>5.1386900000000004</v>
       </c>
       <c r="BK3" s="1">
-        <v>1680.370000</v>
+        <v>1680.37</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1060.980000</v>
+        <v>-1060.98</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>18510.049946</v>
+        <v>18510.049945999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.141681</v>
+        <v>5.1416810000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1976.680000</v>
+        <v>1976.68</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1833.930000</v>
+        <v>-1833.93</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>18521.607227</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.144891</v>
+        <v>5.1448910000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>2367.970000</v>
+        <v>2367.9699999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2726.700000</v>
+        <v>-2726.7</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>18532.037597</v>
+        <v>18532.037596999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.147788</v>
+        <v>5.1477880000000003</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2854.590000</v>
+        <v>2854.59</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3696.420000</v>
+        <v>-3696.42</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>18543.157406</v>
+        <v>18543.157405999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.150877</v>
+        <v>5.1508770000000004</v>
       </c>
       <c r="CE3" s="1">
-        <v>4294.490000</v>
+        <v>4294.49</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6032.340000</v>
+        <v>-6032.34</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>18371.836753</v>
       </c>
@@ -995,88 +1411,88 @@
         <v>5.103288</v>
       </c>
       <c r="C4" s="1">
-        <v>1239.810000</v>
+        <v>1239.81</v>
       </c>
       <c r="D4" s="1">
-        <v>-305.483000</v>
+        <v>-305.483</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>18381.990388</v>
+        <v>18381.990387999998</v>
       </c>
       <c r="G4" s="1">
-        <v>5.106108</v>
+        <v>5.1061079999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1264.300000</v>
+        <v>1264.3</v>
       </c>
       <c r="I4" s="1">
-        <v>-263.421000</v>
+        <v>-263.42099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>18392.144454</v>
+        <v>18392.144454000001</v>
       </c>
       <c r="L4" s="1">
-        <v>5.108929</v>
+        <v>5.1089289999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>1298.840000</v>
+        <v>1298.8399999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.210000</v>
+        <v>-201.21</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>18402.294385</v>
+        <v>18402.294385000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.111748</v>
+        <v>5.1117480000000004</v>
       </c>
       <c r="R4" s="1">
-        <v>1310.640000</v>
+        <v>1310.6400000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.240000</v>
+        <v>-183.24</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>18412.860891</v>
       </c>
       <c r="V4" s="1">
-        <v>5.114684</v>
+        <v>5.1146839999999996</v>
       </c>
       <c r="W4" s="1">
-        <v>1323.320000</v>
+        <v>1323.32</v>
       </c>
       <c r="X4" s="1">
-        <v>-169.894000</v>
+        <v>-169.89400000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>18423.006031</v>
+        <v>18423.006031000001</v>
       </c>
       <c r="AA4" s="1">
         <v>5.117502</v>
       </c>
       <c r="AB4" s="1">
-        <v>1340.390000</v>
+        <v>1340.39</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.975000</v>
+        <v>-167.97499999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>18433.552495</v>
@@ -1085,405 +1501,405 @@
         <v>5.120431</v>
       </c>
       <c r="AG4" s="1">
-        <v>1353.250000</v>
+        <v>1353.25</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.244000</v>
+        <v>-178.244</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>18444.217974</v>
+        <v>18444.217973999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.123394</v>
+        <v>5.1233940000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1373.510000</v>
+        <v>1373.51</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.526000</v>
+        <v>-208.52600000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>18455.172912</v>
+        <v>18455.172912000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.126437</v>
+        <v>5.1264370000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1395.150000</v>
+        <v>1395.15</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.723000</v>
+        <v>-252.72300000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>18466.176852</v>
+        <v>18466.176852000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.129494</v>
+        <v>5.1294940000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1419.790000</v>
+        <v>1419.79</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.116000</v>
+        <v>-313.11599999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>18477.252027</v>
+        <v>18477.252026999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5.132570</v>
+        <v>5.1325700000000003</v>
       </c>
       <c r="BA4" s="1">
-        <v>1439.230000</v>
+        <v>1439.23</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.518000</v>
+        <v>-365.51799999999997</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>18488.187320</v>
+        <v>18488.187320000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.135608</v>
+        <v>5.1356080000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1525.000000</v>
+        <v>1525</v>
       </c>
       <c r="BG4" s="1">
-        <v>-614.783000</v>
+        <v>-614.78300000000002</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>18499.966809</v>
+        <v>18499.966809000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.138880</v>
+        <v>5.1388800000000003</v>
       </c>
       <c r="BK4" s="1">
-        <v>1680.240000</v>
+        <v>1680.24</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1061.000000</v>
+        <v>-1061</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>18510.806345</v>
+        <v>18510.806345000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.141891</v>
+        <v>5.1418910000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1976.300000</v>
+        <v>1976.3</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1833.780000</v>
+        <v>-1833.78</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>18521.722795</v>
+        <v>18521.722795000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.144923</v>
+        <v>5.1449230000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>2367.530000</v>
+        <v>2367.5300000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2727.160000</v>
+        <v>-2727.16</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>18532.484526</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.147912</v>
+        <v>5.1479119999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2853.910000</v>
+        <v>2853.91</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3697.020000</v>
+        <v>-3697.02</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>18543.679198</v>
+        <v>18543.679198000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>5.151022</v>
+        <v>5.1510220000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>4295.040000</v>
+        <v>4295.04</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6025.320000</v>
+        <v>-6025.32</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>18372.253424</v>
+        <v>18372.253423999999</v>
       </c>
       <c r="B5" s="1">
-        <v>5.103404</v>
+        <v>5.1034040000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>1239.350000</v>
+        <v>1239.3499999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-305.384000</v>
+        <v>-305.38400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>18382.288982</v>
+        <v>18382.288981999998</v>
       </c>
       <c r="G5" s="1">
-        <v>5.106191</v>
+        <v>5.1061909999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1264.610000</v>
+        <v>1264.6099999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-263.606000</v>
+        <v>-263.60599999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>18392.445255</v>
+        <v>18392.445254999999</v>
       </c>
       <c r="L5" s="1">
         <v>5.109013</v>
       </c>
       <c r="M5" s="1">
-        <v>1298.820000</v>
+        <v>1298.82</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.340000</v>
+        <v>-201.34</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>18402.642280</v>
+        <v>18402.64228</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.111845</v>
+        <v>5.1118449999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1310.610000</v>
+        <v>1310.6099999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.309000</v>
+        <v>-183.309</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>18413.201642</v>
       </c>
       <c r="V5" s="1">
-        <v>5.114778</v>
+        <v>5.1147780000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>1323.290000</v>
+        <v>1323.29</v>
       </c>
       <c r="X5" s="1">
-        <v>-169.876000</v>
+        <v>-169.876</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>18423.348269</v>
+        <v>18423.348268999998</v>
       </c>
       <c r="AA5" s="1">
         <v>5.117597</v>
       </c>
       <c r="AB5" s="1">
-        <v>1340.240000</v>
+        <v>1340.24</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.187000</v>
+        <v>-168.18700000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>18434.228510</v>
+        <v>18434.228510000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.120619</v>
+        <v>5.1206189999999996</v>
       </c>
       <c r="AG5" s="1">
-        <v>1353.020000</v>
+        <v>1353.02</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.074000</v>
+        <v>-178.07400000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>18444.911841</v>
+        <v>18444.911841000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.123587</v>
+        <v>5.1235869999999997</v>
       </c>
       <c r="AL5" s="1">
-        <v>1373.520000</v>
+        <v>1373.52</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.474000</v>
+        <v>-208.47399999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>18455.532178</v>
+        <v>18455.532178000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.126537</v>
+        <v>5.1265369999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1395.170000</v>
+        <v>1395.17</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.759000</v>
+        <v>-252.75899999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>18466.543364</v>
+        <v>18466.543364000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.129595</v>
+        <v>5.1295950000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1419.770000</v>
+        <v>1419.77</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.121000</v>
+        <v>-313.12099999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>18477.613573</v>
+        <v>18477.613572999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.132670</v>
+        <v>5.1326700000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1439.180000</v>
+        <v>1439.18</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.521000</v>
+        <v>-365.52100000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>18488.853415</v>
+        <v>18488.853415000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.135793</v>
+        <v>5.1357929999999996</v>
       </c>
       <c r="BF5" s="1">
-        <v>1525.010000</v>
+        <v>1525.01</v>
       </c>
       <c r="BG5" s="1">
-        <v>-614.782000</v>
+        <v>-614.78200000000004</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>18500.409207</v>
+        <v>18500.409207000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.139003</v>
+        <v>5.1390029999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1680.350000</v>
+        <v>1680.35</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1061.070000</v>
+        <v>-1061.07</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>18511.289450</v>
+        <v>18511.28945</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.142025</v>
+        <v>5.1420250000000003</v>
       </c>
       <c r="BP5" s="1">
-        <v>1976.520000</v>
+        <v>1976.52</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1833.790000</v>
+        <v>-1833.79</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>18522.140954</v>
+        <v>18522.140953999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.145039</v>
+        <v>5.1450389999999997</v>
       </c>
       <c r="BU5" s="1">
-        <v>2366.980000</v>
+        <v>2366.98</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2727.580000</v>
+        <v>-2727.58</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>18532.943292</v>
       </c>
       <c r="BY5" s="1">
-        <v>5.148040</v>
+        <v>5.1480399999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2853.360000</v>
+        <v>2853.36</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3697.050000</v>
+        <v>-3697.05</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>18544.222813</v>
@@ -1492,45 +1908,45 @@
         <v>5.151173</v>
       </c>
       <c r="CE5" s="1">
-        <v>4296.110000</v>
+        <v>4296.1099999999997</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6038.610000</v>
+        <v>-6038.61</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>18372.527185</v>
+        <v>18372.527184999999</v>
       </c>
       <c r="B6" s="1">
-        <v>5.103480</v>
+        <v>5.1034800000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1239.750000</v>
+        <v>1239.75</v>
       </c>
       <c r="D6" s="1">
-        <v>-305.740000</v>
+        <v>-305.74</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>18382.631224</v>
+        <v>18382.631224000001</v>
       </c>
       <c r="G6" s="1">
-        <v>5.106286</v>
+        <v>5.1062859999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1263.920000</v>
+        <v>1263.92</v>
       </c>
       <c r="I6" s="1">
-        <v>-262.957000</v>
+        <v>-262.95699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>18392.789782</v>
@@ -1539,465 +1955,465 @@
         <v>5.109108</v>
       </c>
       <c r="M6" s="1">
-        <v>1298.730000</v>
+        <v>1298.73</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.485000</v>
+        <v>-201.48500000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>18402.989480</v>
+        <v>18402.98948</v>
       </c>
       <c r="Q6" s="1">
         <v>5.111942</v>
       </c>
       <c r="R6" s="1">
-        <v>1310.450000</v>
+        <v>1310.45</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.190000</v>
+        <v>-183.19</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>18413.889596</v>
+        <v>18413.889596000001</v>
       </c>
       <c r="V6" s="1">
-        <v>5.114969</v>
+        <v>5.1149690000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>1323.290000</v>
+        <v>1323.29</v>
       </c>
       <c r="X6" s="1">
-        <v>-169.853000</v>
+        <v>-169.85300000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>18424.055068</v>
+        <v>18424.055068000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.117793</v>
+        <v>5.1177929999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>1340.280000</v>
+        <v>1340.28</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.122000</v>
+        <v>-168.12200000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>18434.584157</v>
+        <v>18434.584157000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.120718</v>
+        <v>5.1207180000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1352.740000</v>
+        <v>1352.74</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.245000</v>
+        <v>-178.245</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>18445.263039</v>
+        <v>18445.263039000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.123684</v>
+        <v>5.1236839999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1373.520000</v>
+        <v>1373.52</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.503000</v>
+        <v>-208.50299999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>18455.893266</v>
+        <v>18455.893265999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.126637</v>
+        <v>5.1266369999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1395.180000</v>
+        <v>1395.18</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.721000</v>
+        <v>-252.721</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>18467.208530</v>
+        <v>18467.20853</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.129780</v>
+        <v>5.1297800000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1419.790000</v>
+        <v>1419.79</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.097000</v>
+        <v>-313.09699999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>18478.246468</v>
+        <v>18478.246468000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.132846</v>
+        <v>5.1328459999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1439.210000</v>
+        <v>1439.21</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.521000</v>
+        <v>-365.52100000000002</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>18489.271542</v>
+        <v>18489.271541999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.135909</v>
+        <v>5.1359089999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1524.980000</v>
+        <v>1524.98</v>
       </c>
       <c r="BG6" s="1">
-        <v>-614.741000</v>
+        <v>-614.74099999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>18500.784220</v>
+        <v>18500.784220000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.139107</v>
+        <v>5.1391070000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1680.090000</v>
+        <v>1680.09</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1061.000000</v>
+        <v>-1061</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>18511.723479</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.142145</v>
+        <v>5.1421450000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1976.530000</v>
+        <v>1976.53</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1833.720000</v>
+        <v>-1833.72</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>18522.568010</v>
+        <v>18522.568009999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>5.145158</v>
+        <v>5.1451580000000003</v>
       </c>
       <c r="BU6" s="1">
-        <v>2366.190000</v>
+        <v>2366.19</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2727.190000</v>
+        <v>-2727.19</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>18533.389691</v>
       </c>
       <c r="BY6" s="1">
-        <v>5.148164</v>
+        <v>5.1481640000000004</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2854.420000</v>
+        <v>2854.42</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3696.380000</v>
+        <v>-3696.38</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>18544.752573</v>
+        <v>18544.752573000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.151320</v>
+        <v>5.1513200000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4290.750000</v>
+        <v>4290.75</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6021.570000</v>
+        <v>-6021.57</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>18372.865457</v>
       </c>
       <c r="B7" s="1">
-        <v>5.103574</v>
+        <v>5.1035740000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1239.580000</v>
+        <v>1239.58</v>
       </c>
       <c r="D7" s="1">
-        <v>-305.219000</v>
+        <v>-305.21899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>18382.977395</v>
+        <v>18382.977395000002</v>
       </c>
       <c r="G7" s="1">
-        <v>5.106383</v>
+        <v>5.1063830000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1263.900000</v>
+        <v>1263.9000000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-263.693000</v>
+        <v>-263.69299999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>18393.137482</v>
+        <v>18393.137481999998</v>
       </c>
       <c r="L7" s="1">
-        <v>5.109205</v>
+        <v>5.1092050000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1299.160000</v>
+        <v>1299.1600000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.595000</v>
+        <v>-201.595</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>18403.686358</v>
+        <v>18403.686357999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.112135</v>
+        <v>5.1121350000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>1310.540000</v>
+        <v>1310.54</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.138000</v>
+        <v>-183.13800000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>18414.226400</v>
+        <v>18414.2264</v>
       </c>
       <c r="V7" s="1">
-        <v>5.115063</v>
+        <v>5.1150630000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1323.220000</v>
+        <v>1323.22</v>
       </c>
       <c r="X7" s="1">
-        <v>-169.902000</v>
+        <v>-169.90199999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>18424.404748</v>
+        <v>18424.404748000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.117890</v>
+        <v>5.1178900000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1340.350000</v>
+        <v>1340.35</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.095000</v>
+        <v>-168.095</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>18434.926381</v>
+        <v>18434.926381000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.120813</v>
+        <v>5.1208130000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1352.980000</v>
+        <v>1352.98</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.073000</v>
+        <v>-178.07300000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>18445.912768</v>
+        <v>18445.912767999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.123865</v>
+        <v>5.1238650000000003</v>
       </c>
       <c r="AL7" s="1">
-        <v>1373.510000</v>
+        <v>1373.51</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.506000</v>
+        <v>-208.506</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>18456.555425</v>
+        <v>18456.555424999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.126821</v>
+        <v>5.1268209999999996</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1395.140000</v>
+        <v>1395.14</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.755000</v>
+        <v>-252.755</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>18467.636083</v>
+        <v>18467.636083000001</v>
       </c>
       <c r="AU7" s="1">
         <v>5.129899</v>
       </c>
       <c r="AV7" s="1">
-        <v>1419.780000</v>
+        <v>1419.78</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.121000</v>
+        <v>-313.12099999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>18478.687412</v>
+        <v>18478.687411999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.132969</v>
+        <v>5.1329690000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1439.220000</v>
+        <v>1439.22</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.466000</v>
+        <v>-365.46600000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>18489.659909</v>
+        <v>18489.659909000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.136017</v>
+        <v>5.1360169999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1524.990000</v>
+        <v>1524.99</v>
       </c>
       <c r="BG7" s="1">
-        <v>-614.732000</v>
+        <v>-614.73199999999997</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>18501.160150</v>
+        <v>18501.16015</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.139211</v>
+        <v>5.1392110000000004</v>
       </c>
       <c r="BK7" s="1">
-        <v>1680.370000</v>
+        <v>1680.37</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1061.020000</v>
+        <v>-1061.02</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>18512.134136</v>
+        <v>18512.134136000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.142259</v>
+        <v>5.1422590000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1976.370000</v>
+        <v>1976.37</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1833.750000</v>
+        <v>-1833.75</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>18522.991065</v>
+        <v>18522.991064999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.145275</v>
+        <v>5.1452749999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>2365.610000</v>
+        <v>2365.61</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2727.310000</v>
+        <v>-2727.31</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>18533.813275</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.148281</v>
+        <v>5.1482809999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2853.470000</v>
+        <v>2853.47</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3696.210000</v>
+        <v>-3696.21</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>18545.272362</v>
@@ -2006,16 +2422,16 @@
         <v>5.151465</v>
       </c>
       <c r="CE7" s="1">
-        <v>4276.700000</v>
+        <v>4276.7</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6035.440000</v>
+        <v>-6035.44</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>18373.207199</v>
       </c>
@@ -2023,330 +2439,330 @@
         <v>5.103669</v>
       </c>
       <c r="C8" s="1">
-        <v>1239.740000</v>
+        <v>1239.74</v>
       </c>
       <c r="D8" s="1">
-        <v>-305.397000</v>
+        <v>-305.39699999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>18383.669314</v>
+        <v>18383.669313999999</v>
       </c>
       <c r="G8" s="1">
-        <v>5.106575</v>
+        <v>5.1065750000000003</v>
       </c>
       <c r="H8" s="1">
-        <v>1264.860000</v>
+        <v>1264.8599999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-263.271000</v>
+        <v>-263.27100000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>18393.832379</v>
+        <v>18393.832378999999</v>
       </c>
       <c r="L8" s="1">
-        <v>5.109398</v>
+        <v>5.1093979999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>1299.250000</v>
+        <v>1299.25</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.399000</v>
+        <v>-201.399</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>18404.034056</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.112232</v>
+        <v>5.1122319999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>1310.620000</v>
+        <v>1310.6199999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.181000</v>
+        <v>-183.18100000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>18414.576530</v>
+        <v>18414.576529999998</v>
       </c>
       <c r="V8" s="1">
-        <v>5.115160</v>
+        <v>5.1151600000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>1323.360000</v>
+        <v>1323.36</v>
       </c>
       <c r="X8" s="1">
-        <v>-169.966000</v>
+        <v>-169.96600000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>18424.751451</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.117987</v>
+        <v>5.1179870000000003</v>
       </c>
       <c r="AB8" s="1">
-        <v>1340.180000</v>
+        <v>1340.18</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.150000</v>
+        <v>-168.15</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>18435.579645</v>
+        <v>18435.579645000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.120994</v>
+        <v>5.1209939999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>1353.170000</v>
+        <v>1353.17</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.257000</v>
+        <v>-178.25700000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>18446.309070</v>
+        <v>18446.309069999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.123975</v>
+        <v>5.1239749999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>1373.520000</v>
+        <v>1373.52</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.489000</v>
+        <v>-208.489</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>18457.003808</v>
+        <v>18457.003808000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.126946</v>
+        <v>5.1269460000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1395.150000</v>
+        <v>1395.15</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.755000</v>
+        <v>-252.755</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>18467.998626</v>
+        <v>18467.998626000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.130000</v>
+        <v>5.13</v>
       </c>
       <c r="AV8" s="1">
-        <v>1419.760000</v>
+        <v>1419.76</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.137000</v>
+        <v>-313.137</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>18479.070632</v>
+        <v>18479.070631999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.133075</v>
+        <v>5.1330749999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1439.200000</v>
+        <v>1439.2</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.500000</v>
+        <v>-365.5</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>18490.022518</v>
+        <v>18490.022518000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.136117</v>
+        <v>5.1361169999999996</v>
       </c>
       <c r="BF8" s="1">
-        <v>1524.980000</v>
+        <v>1524.98</v>
       </c>
       <c r="BG8" s="1">
-        <v>-614.771000</v>
+        <v>-614.77099999999996</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>18501.584741</v>
+        <v>18501.584740999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>5.139329</v>
       </c>
       <c r="BK8" s="1">
-        <v>1680.190000</v>
+        <v>1680.19</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1061.120000</v>
+        <v>-1061.1199999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>18512.522504</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.142367</v>
+        <v>5.1423670000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1976.330000</v>
+        <v>1976.33</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1833.670000</v>
+        <v>-1833.67</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>18523.410216</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.145392</v>
+        <v>5.1453920000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>2364.790000</v>
+        <v>2364.79</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2726.920000</v>
+        <v>-2726.92</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>18534.234411</v>
+        <v>18534.234411000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.148398</v>
+        <v>5.1483980000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2853.740000</v>
+        <v>2853.74</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3696.710000</v>
+        <v>-3696.71</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>18545.812523</v>
+        <v>18545.812523000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.151615</v>
+        <v>5.1516149999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>4295.670000</v>
+        <v>4295.67</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6037.430000</v>
+        <v>-6037.43</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>18373.890687</v>
+        <v>18373.890686999999</v>
       </c>
       <c r="B9" s="1">
-        <v>5.103859</v>
+        <v>5.1038589999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1239.730000</v>
+        <v>1239.73</v>
       </c>
       <c r="D9" s="1">
-        <v>-305.281000</v>
+        <v>-305.28100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>18384.012553</v>
       </c>
       <c r="G9" s="1">
-        <v>5.106670</v>
+        <v>5.1066700000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>1264.010000</v>
+        <v>1264.01</v>
       </c>
       <c r="I9" s="1">
-        <v>-263.410000</v>
+        <v>-263.41000000000003</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>18394.179076</v>
       </c>
       <c r="L9" s="1">
-        <v>5.109494</v>
+        <v>5.1094939999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1299.260000</v>
+        <v>1299.26</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.603000</v>
+        <v>-201.60300000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>18404.383238</v>
+        <v>18404.383237999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.112329</v>
+        <v>5.1123289999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1310.670000</v>
+        <v>1310.67</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.153000</v>
+        <v>-183.15299999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>18415.226429</v>
+        <v>18415.226428999998</v>
       </c>
       <c r="V9" s="1">
-        <v>5.115341</v>
+        <v>5.1153409999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1323.400000</v>
+        <v>1323.4</v>
       </c>
       <c r="X9" s="1">
-        <v>-169.849000</v>
+        <v>-169.84899999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>18425.407691</v>
@@ -2355,88 +2771,88 @@
         <v>5.118169</v>
       </c>
       <c r="AB9" s="1">
-        <v>1340.180000</v>
+        <v>1340.18</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.017000</v>
+        <v>-168.017</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>18435.958071</v>
+        <v>18435.958071000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.121099</v>
+        <v>5.1210990000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1353.060000</v>
+        <v>1353.06</v>
       </c>
       <c r="AH9" s="1">
-        <v>-177.976000</v>
+        <v>-177.976</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>18446.657076</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.124071</v>
+        <v>5.1240709999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1373.500000</v>
+        <v>1373.5</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.478000</v>
+        <v>-208.47800000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>18457.364896</v>
+        <v>18457.364895999999</v>
       </c>
       <c r="AP9" s="1">
         <v>5.127046</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1395.200000</v>
+        <v>1395.2</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.747000</v>
+        <v>-252.74700000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>18468.362722</v>
+        <v>18468.362722000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.130101</v>
+        <v>5.1301009999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1419.760000</v>
+        <v>1419.76</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.151000</v>
+        <v>-313.15100000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>18479.492418</v>
+        <v>18479.492418000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.133192</v>
+        <v>5.1331920000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1439.190000</v>
+        <v>1439.19</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.499000</v>
+        <v>-365.49900000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>18490.444086</v>
@@ -2445,542 +2861,542 @@
         <v>5.136234</v>
       </c>
       <c r="BF9" s="1">
-        <v>1524.950000</v>
+        <v>1524.95</v>
       </c>
       <c r="BG9" s="1">
-        <v>-614.700000</v>
+        <v>-614.70000000000005</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>18501.918037</v>
+        <v>18501.918036999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.139422</v>
+        <v>5.1394219999999997</v>
       </c>
       <c r="BK9" s="1">
-        <v>1680.280000</v>
+        <v>1680.28</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1060.910000</v>
+        <v>-1060.9100000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>18512.920326</v>
+        <v>18512.920325999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.142478</v>
+        <v>5.1424779999999997</v>
       </c>
       <c r="BP9" s="1">
-        <v>1976.390000</v>
+        <v>1976.39</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1833.610000</v>
+        <v>-1833.61</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>18523.841704</v>
+        <v>18523.841703999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>5.145512</v>
+        <v>5.1455120000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2364.420000</v>
+        <v>2364.42</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2726.050000</v>
+        <v>-2726.05</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>18534.662458</v>
+        <v>18534.662457999999</v>
       </c>
       <c r="BY9" s="1">
         <v>5.148517</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2854.090000</v>
+        <v>2854.09</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3696.510000</v>
+        <v>-3696.51</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>18546.351179</v>
+        <v>18546.351179000001</v>
       </c>
       <c r="CD9" s="1">
         <v>5.151764</v>
       </c>
       <c r="CE9" s="1">
-        <v>4281.040000</v>
+        <v>4281.04</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6021.870000</v>
+        <v>-6021.87</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>18374.234947</v>
+        <v>18374.234947000001</v>
       </c>
       <c r="B10" s="1">
-        <v>5.103954</v>
+        <v>5.1039539999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1240.160000</v>
+        <v>1240.1600000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-305.490000</v>
+        <v>-305.49</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>18384.357264</v>
+        <v>18384.357263999998</v>
       </c>
       <c r="G10" s="1">
-        <v>5.106766</v>
+        <v>5.1067660000000004</v>
       </c>
       <c r="H10" s="1">
-        <v>1265.150000</v>
+        <v>1265.1500000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-263.774000</v>
+        <v>-263.774</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>18394.523765</v>
+        <v>18394.523765000002</v>
       </c>
       <c r="L10" s="1">
-        <v>5.109590</v>
+        <v>5.1095899999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1299.060000</v>
+        <v>1299.06</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.244000</v>
+        <v>-201.244</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>18405.041430</v>
+        <v>18405.041430000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.112512</v>
+        <v>5.1125119999999997</v>
       </c>
       <c r="R10" s="1">
-        <v>1310.640000</v>
+        <v>1310.6400000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.277000</v>
+        <v>-183.27699999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>18415.608199</v>
+        <v>18415.608198999998</v>
       </c>
       <c r="V10" s="1">
-        <v>5.115447</v>
+        <v>5.1154469999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>1323.370000</v>
+        <v>1323.37</v>
       </c>
       <c r="X10" s="1">
-        <v>-169.965000</v>
+        <v>-169.965</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>18425.798505</v>
+        <v>18425.798504999999</v>
       </c>
       <c r="AA10" s="1">
         <v>5.118277</v>
       </c>
       <c r="AB10" s="1">
-        <v>1340.170000</v>
+        <v>1340.17</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.139000</v>
+        <v>-168.13900000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>18436.299805</v>
+        <v>18436.299804999999</v>
       </c>
       <c r="AF10" s="1">
         <v>5.121194</v>
       </c>
       <c r="AG10" s="1">
-        <v>1353.160000</v>
+        <v>1353.16</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.240000</v>
+        <v>-178.24</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>18447.007437</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.124169</v>
+        <v>5.1241690000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>1373.510000</v>
+        <v>1373.51</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.533000</v>
+        <v>-208.53299999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>18457.726016</v>
+        <v>18457.726016000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.127146</v>
+        <v>5.1271459999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1395.160000</v>
+        <v>1395.16</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.725000</v>
+        <v>-252.72499999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>18468.779826</v>
+        <v>18468.779826000002</v>
       </c>
       <c r="AU10" s="1">
         <v>5.130217</v>
       </c>
       <c r="AV10" s="1">
-        <v>1419.810000</v>
+        <v>1419.81</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.111000</v>
+        <v>-313.11099999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>18479.789536</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.133275</v>
+        <v>5.1332750000000003</v>
       </c>
       <c r="BA10" s="1">
-        <v>1439.180000</v>
+        <v>1439.18</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.510000</v>
+        <v>-365.51</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>18490.742180</v>
+        <v>18490.742180000001</v>
       </c>
       <c r="BE10" s="1">
         <v>5.136317</v>
       </c>
       <c r="BF10" s="1">
-        <v>1524.990000</v>
+        <v>1524.99</v>
       </c>
       <c r="BG10" s="1">
-        <v>-614.715000</v>
+        <v>-614.71500000000003</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>18502.308922</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.139530</v>
+        <v>5.1395299999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1680.270000</v>
+        <v>1680.27</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1061.090000</v>
+        <v>-1061.0899999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>18513.345366</v>
+        <v>18513.345366000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.142596</v>
+        <v>5.1425960000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1976.280000</v>
+        <v>1976.28</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1833.710000</v>
+        <v>-1833.71</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>18524.251895</v>
+        <v>18524.251895000001</v>
       </c>
       <c r="BT10" s="1">
         <v>5.145626</v>
       </c>
       <c r="BU10" s="1">
-        <v>2363.990000</v>
+        <v>2363.9899999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2725.430000</v>
+        <v>-2725.43</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>18535.085515</v>
+        <v>18535.085514999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.148635</v>
+        <v>5.1486349999999996</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2853.420000</v>
+        <v>2853.42</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3696.870000</v>
+        <v>-3696.87</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>18546.889801</v>
+        <v>18546.889801000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>5.151914</v>
+        <v>5.1519139999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>4281.850000</v>
+        <v>4281.8500000000004</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6044.270000</v>
+        <v>-6044.27</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>18374.580636</v>
+        <v>18374.580635999999</v>
       </c>
       <c r="B11" s="1">
-        <v>5.104050</v>
+        <v>5.10405</v>
       </c>
       <c r="C11" s="1">
-        <v>1239.750000</v>
+        <v>1239.75</v>
       </c>
       <c r="D11" s="1">
-        <v>-305.090000</v>
+        <v>-305.08999999999997</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>18385.013007</v>
+        <v>18385.013007000001</v>
       </c>
       <c r="G11" s="1">
         <v>5.106948</v>
       </c>
       <c r="H11" s="1">
-        <v>1264.440000</v>
+        <v>1264.44</v>
       </c>
       <c r="I11" s="1">
-        <v>-262.623000</v>
+        <v>-262.62299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>18395.148723</v>
+        <v>18395.148722999998</v>
       </c>
       <c r="L11" s="1">
-        <v>5.109764</v>
+        <v>5.1097640000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1299.350000</v>
+        <v>1299.3499999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.906000</v>
+        <v>-200.90600000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>18405.429301</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.112619</v>
+        <v>5.1126189999999996</v>
       </c>
       <c r="R11" s="1">
-        <v>1310.570000</v>
+        <v>1310.57</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.240000</v>
+        <v>-183.24</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>18415.950439</v>
       </c>
       <c r="V11" s="1">
-        <v>5.115542</v>
+        <v>5.1155419999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>1323.270000</v>
+        <v>1323.27</v>
       </c>
       <c r="X11" s="1">
-        <v>-169.984000</v>
+        <v>-169.98400000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>18426.148715</v>
+        <v>18426.148714999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.118375</v>
+        <v>5.1183750000000003</v>
       </c>
       <c r="AB11" s="1">
-        <v>1340.290000</v>
+        <v>1340.29</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.950000</v>
+        <v>-167.95</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>18436.644027</v>
+        <v>18436.644026999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.121290</v>
+        <v>5.1212900000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1353.030000</v>
+        <v>1353.03</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.157000</v>
+        <v>-178.15700000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>18447.420605</v>
+        <v>18447.420604999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.124284</v>
+        <v>5.1242840000000003</v>
       </c>
       <c r="AL11" s="1">
-        <v>1373.510000</v>
+        <v>1373.51</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.510000</v>
+        <v>-208.51</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>18458.133729</v>
+        <v>18458.133729000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.127259</v>
+        <v>5.1272589999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1395.150000</v>
+        <v>1395.15</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.748000</v>
+        <v>-252.74799999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>18469.094290</v>
+        <v>18469.094290000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.130304</v>
+        <v>5.1303039999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1419.780000</v>
+        <v>1419.78</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.148000</v>
+        <v>-313.14800000000002</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>18480.148164</v>
+        <v>18480.148163999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.133374</v>
+        <v>5.1333739999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1439.240000</v>
+        <v>1439.24</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.478000</v>
+        <v>-365.47800000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>18491.106276</v>
+        <v>18491.106275999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.136418</v>
+        <v>5.1364179999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1524.990000</v>
+        <v>1524.99</v>
       </c>
       <c r="BG11" s="1">
-        <v>-614.741000</v>
+        <v>-614.74099999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>18502.686868</v>
+        <v>18502.686868000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.139635</v>
+        <v>5.1396350000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1680.280000</v>
+        <v>1680.28</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1060.970000</v>
+        <v>-1060.97</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>18513.752085</v>
@@ -2989,2039 +3405,2039 @@
         <v>5.142709</v>
       </c>
       <c r="BP11" s="1">
-        <v>1976.250000</v>
+        <v>1976.25</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1833.590000</v>
+        <v>-1833.59</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>18524.683234</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.145745</v>
+        <v>5.1457449999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>2363.950000</v>
+        <v>2363.9499999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2724.820000</v>
+        <v>-2724.82</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>18535.523480</v>
+        <v>18535.52348</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.148757</v>
+        <v>5.1487569999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2853.990000</v>
+        <v>2853.99</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3695.470000</v>
+        <v>-3695.47</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>18547.429945</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.152064</v>
+        <v>5.1520640000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>4293.500000</v>
+        <v>4293.5</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6024.420000</v>
+        <v>-6024.42</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>18375.221948</v>
+        <v>18375.221947999999</v>
       </c>
       <c r="B12" s="1">
         <v>5.104228</v>
       </c>
       <c r="C12" s="1">
-        <v>1239.640000</v>
+        <v>1239.6400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-305.200000</v>
+        <v>-305.2</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>18385.389439</v>
+        <v>18385.389438999999</v>
       </c>
       <c r="G12" s="1">
-        <v>5.107053</v>
+        <v>5.1070529999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>1264.620000</v>
+        <v>1264.6199999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-262.500000</v>
+        <v>-262.5</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>18395.558915</v>
+        <v>18395.558915000001</v>
       </c>
       <c r="L12" s="1">
         <v>5.109877</v>
       </c>
       <c r="M12" s="1">
-        <v>1299.260000</v>
+        <v>1299.26</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.356000</v>
+        <v>-201.35599999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>18405.778522</v>
+        <v>18405.778522000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.112716</v>
+        <v>5.1127159999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1310.540000</v>
+        <v>1310.54</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.131000</v>
+        <v>-183.131</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>18416.294694</v>
       </c>
       <c r="V12" s="1">
-        <v>5.115637</v>
+        <v>5.1156370000000004</v>
       </c>
       <c r="W12" s="1">
-        <v>1323.440000</v>
+        <v>1323.44</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.036000</v>
+        <v>-170.036</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>18426.492904</v>
+        <v>18426.492903999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.118470</v>
+        <v>5.1184700000000003</v>
       </c>
       <c r="AB12" s="1">
-        <v>1340.250000</v>
+        <v>1340.25</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.233000</v>
+        <v>-168.233</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>18437.058714</v>
+        <v>18437.058713999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.121405</v>
+        <v>5.1214050000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1353.020000</v>
+        <v>1353.02</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.173000</v>
+        <v>-178.173</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>18447.708318</v>
+        <v>18447.708318000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.124363</v>
+        <v>5.1243629999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>1373.500000</v>
+        <v>1373.5</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.516000</v>
+        <v>-208.51599999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>18458.446174</v>
+        <v>18458.446174000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.127346</v>
+        <v>5.1273460000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1395.140000</v>
+        <v>1395.14</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.719000</v>
+        <v>-252.71899999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>18469.457855</v>
+        <v>18469.457855000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.130405</v>
+        <v>5.1304049999999997</v>
       </c>
       <c r="AV12" s="1">
-        <v>1419.790000</v>
+        <v>1419.79</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.131000</v>
+        <v>-313.13099999999997</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>18480.508722</v>
+        <v>18480.508721999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.133475</v>
+        <v>5.1334749999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1439.210000</v>
+        <v>1439.21</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.491000</v>
+        <v>-365.49099999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>18491.466340</v>
+        <v>18491.466339999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.136518</v>
+        <v>5.1365179999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1524.990000</v>
+        <v>1524.99</v>
       </c>
       <c r="BG12" s="1">
-        <v>-614.723000</v>
+        <v>-614.72299999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>18503.435299</v>
+        <v>18503.435299000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.139843</v>
+        <v>5.1398429999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1680.150000</v>
+        <v>1680.15</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1060.910000</v>
+        <v>-1060.9100000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>18514.165254</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.142824</v>
+        <v>5.1428240000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1976.120000</v>
+        <v>1976.12</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1833.670000</v>
+        <v>-1833.67</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>18525.108982</v>
+        <v>18525.108982000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.145864</v>
+        <v>5.1458640000000004</v>
       </c>
       <c r="BU12" s="1">
-        <v>2363.810000</v>
+        <v>2363.81</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2724.160000</v>
+        <v>-2724.16</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>18535.946599</v>
+        <v>18535.946598999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.148874</v>
+        <v>5.1488740000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2853.280000</v>
+        <v>2853.28</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3695.990000</v>
+        <v>-3695.99</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>18548.266735</v>
+        <v>18548.266735000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.152296</v>
+        <v>5.1522959999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>4286.990000</v>
+        <v>4286.99</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6043.040000</v>
+        <v>-6043.04</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>18375.600429</v>
+        <v>18375.600428999998</v>
       </c>
       <c r="B13" s="1">
-        <v>5.104333</v>
+        <v>5.1043329999999996</v>
       </c>
       <c r="C13" s="1">
-        <v>1239.380000</v>
+        <v>1239.3800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-305.792000</v>
+        <v>-305.79199999999997</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>18385.736670</v>
+        <v>18385.736669999998</v>
       </c>
       <c r="G13" s="1">
-        <v>5.107149</v>
+        <v>5.1071489999999997</v>
       </c>
       <c r="H13" s="1">
-        <v>1264.900000</v>
+        <v>1264.9000000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-263.740000</v>
+        <v>-263.74</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>18395.903666</v>
+        <v>18395.903665999998</v>
       </c>
       <c r="L13" s="1">
-        <v>5.109973</v>
+        <v>5.1099730000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1299.070000</v>
+        <v>1299.07</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.880000</v>
+        <v>-200.88</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>18406.129683</v>
+        <v>18406.129682999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.112814</v>
+        <v>5.1128140000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1310.570000</v>
+        <v>1310.57</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.212000</v>
+        <v>-183.21199999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>18416.708822</v>
+        <v>18416.708822000001</v>
       </c>
       <c r="V13" s="1">
-        <v>5.115752</v>
+        <v>5.1157519999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>1323.390000</v>
+        <v>1323.39</v>
       </c>
       <c r="X13" s="1">
-        <v>-169.888000</v>
+        <v>-169.88800000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>18426.921448</v>
+        <v>18426.921448000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.118589</v>
+        <v>5.1185890000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1340.330000</v>
+        <v>1340.33</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.132000</v>
+        <v>-168.13200000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>18437.341237</v>
+        <v>18437.341237000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.121484</v>
+        <v>5.1214839999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>1353.020000</v>
+        <v>1353.02</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.181000</v>
+        <v>-178.18100000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>18448.056477</v>
+        <v>18448.056476999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.124460</v>
+        <v>5.12446</v>
       </c>
       <c r="AL13" s="1">
-        <v>1373.500000</v>
+        <v>1373.5</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.500000</v>
+        <v>-208.5</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>18458.819198</v>
+        <v>18458.819198000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.127450</v>
+        <v>5.1274499999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1395.160000</v>
+        <v>1395.16</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.733000</v>
+        <v>-252.733</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>18469.836336</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.130510</v>
+        <v>5.1305100000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1419.770000</v>
+        <v>1419.77</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.119000</v>
+        <v>-313.11900000000003</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>18481.225936</v>
+        <v>18481.225935999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.133674</v>
+        <v>5.1336740000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1439.180000</v>
+        <v>1439.18</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.518000</v>
+        <v>-365.51799999999997</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>18492.189011</v>
+        <v>18492.189010999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.136719</v>
+        <v>5.1367190000000003</v>
       </c>
       <c r="BF13" s="1">
-        <v>1524.990000</v>
+        <v>1524.99</v>
       </c>
       <c r="BG13" s="1">
-        <v>-614.707000</v>
+        <v>-614.70699999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>18503.808818</v>
+        <v>18503.808818000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.139947</v>
+        <v>5.1399470000000003</v>
       </c>
       <c r="BK13" s="1">
-        <v>1680.320000</v>
+        <v>1680.32</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1060.980000</v>
+        <v>-1060.98</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>18514.563044</v>
+        <v>18514.563043999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.142934</v>
+        <v>5.1429340000000003</v>
       </c>
       <c r="BP13" s="1">
-        <v>1976.350000</v>
+        <v>1976.35</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1833.620000</v>
+        <v>-1833.62</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>18525.519701</v>
+        <v>18525.519701000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.145978</v>
+        <v>5.1459780000000004</v>
       </c>
       <c r="BU13" s="1">
-        <v>2364.120000</v>
+        <v>2364.12</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2723.550000</v>
+        <v>-2723.55</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>18536.676711</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.149077</v>
+        <v>5.1490770000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2852.960000</v>
+        <v>2852.96</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3696.080000</v>
+        <v>-3696.08</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>18548.508775</v>
+        <v>18548.508774999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.152364</v>
+        <v>5.1523640000000004</v>
       </c>
       <c r="CE13" s="1">
-        <v>4284.860000</v>
+        <v>4284.8599999999997</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6041.130000</v>
+        <v>-6041.13</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>18375.946604</v>
+        <v>18375.946604000001</v>
       </c>
       <c r="B14" s="1">
-        <v>5.104430</v>
+        <v>5.1044299999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>1239.940000</v>
+        <v>1239.94</v>
       </c>
       <c r="D14" s="1">
-        <v>-305.217000</v>
+        <v>-305.21699999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>18386.080862</v>
+        <v>18386.080861999999</v>
       </c>
       <c r="G14" s="1">
-        <v>5.107245</v>
+        <v>5.1072449999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>1265.040000</v>
+        <v>1265.04</v>
       </c>
       <c r="I14" s="1">
-        <v>-262.685000</v>
+        <v>-262.685</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>18396.316304</v>
       </c>
       <c r="L14" s="1">
-        <v>5.110088</v>
+        <v>5.1100880000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1298.890000</v>
+        <v>1298.8900000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.050000</v>
+        <v>-201.05</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>18406.555715</v>
+        <v>18406.555714999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.112932</v>
+        <v>5.1129319999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1310.650000</v>
+        <v>1310.6500000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.145000</v>
+        <v>-183.14500000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>18417.007413</v>
+        <v>18417.007412999999</v>
       </c>
       <c r="V14" s="1">
-        <v>5.115835</v>
+        <v>5.1158349999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>1323.500000</v>
+        <v>1323.5</v>
       </c>
       <c r="X14" s="1">
-        <v>-169.936000</v>
+        <v>-169.93600000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>18427.200696</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.118667</v>
+        <v>5.1186670000000003</v>
       </c>
       <c r="AB14" s="1">
-        <v>1340.410000</v>
+        <v>1340.41</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.126000</v>
+        <v>-168.126</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>18437.681161</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.121578</v>
+        <v>5.1215780000000004</v>
       </c>
       <c r="AG14" s="1">
-        <v>1353.000000</v>
+        <v>1353</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.102000</v>
+        <v>-178.102</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>18448.407644</v>
+        <v>18448.407643999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.124558</v>
+        <v>5.1245580000000004</v>
       </c>
       <c r="AL14" s="1">
-        <v>1373.530000</v>
+        <v>1373.53</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.516000</v>
+        <v>-208.51599999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>18459.169837</v>
+        <v>18459.169837000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.127547</v>
+        <v>5.1275469999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1395.160000</v>
+        <v>1395.16</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.734000</v>
+        <v>-252.73400000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>18470.551534</v>
+        <v>18470.551533999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.130709</v>
+        <v>5.1307090000000004</v>
       </c>
       <c r="AV14" s="1">
-        <v>1419.770000</v>
+        <v>1419.77</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.104000</v>
+        <v>-313.10399999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>18481.585071</v>
+        <v>18481.585071000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.133774</v>
+        <v>5.1337739999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1439.220000</v>
+        <v>1439.22</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.487000</v>
+        <v>-365.48700000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>18492.552775</v>
       </c>
       <c r="BE14" s="1">
-        <v>5.136820</v>
+        <v>5.1368200000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1525.020000</v>
+        <v>1525.02</v>
       </c>
       <c r="BG14" s="1">
-        <v>-614.696000</v>
+        <v>-614.69600000000003</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>18504.187235</v>
+        <v>18504.187235000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5.140052</v>
+        <v>5.1400519999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1680.140000</v>
+        <v>1680.14</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1061.040000</v>
+        <v>-1061.04</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>18515.294643</v>
+        <v>18515.294643000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>5.143137</v>
+        <v>5.1431370000000003</v>
       </c>
       <c r="BP14" s="1">
-        <v>1976.060000</v>
+        <v>1976.06</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1833.600000</v>
+        <v>-1833.6</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>18526.257222</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.146183</v>
+        <v>5.1461829999999997</v>
       </c>
       <c r="BU14" s="1">
-        <v>2364.840000</v>
+        <v>2364.84</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2723.020000</v>
+        <v>-2723.02</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>18536.850775</v>
+        <v>18536.850774999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.149125</v>
+        <v>5.1491249999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2853.590000</v>
+        <v>2853.59</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3696.040000</v>
+        <v>-3696.04</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>18549.029079</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.152508</v>
+        <v>5.1525080000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4295.910000</v>
+        <v>4295.91</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6031.940000</v>
+        <v>-6031.94</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>18376.288843</v>
+        <v>18376.288842999998</v>
       </c>
       <c r="B15" s="1">
-        <v>5.104525</v>
+        <v>5.1045249999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>1239.570000</v>
+        <v>1239.57</v>
       </c>
       <c r="D15" s="1">
-        <v>-305.450000</v>
+        <v>-305.45</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>18386.502461</v>
       </c>
       <c r="G15" s="1">
-        <v>5.107362</v>
+        <v>5.1073620000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>1265.110000</v>
+        <v>1265.1099999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-262.685000</v>
+        <v>-262.685</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>18396.596076</v>
+        <v>18396.596076000002</v>
       </c>
       <c r="L15" s="1">
-        <v>5.110166</v>
+        <v>5.1101660000000004</v>
       </c>
       <c r="M15" s="1">
-        <v>1299.050000</v>
+        <v>1299.05</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.170000</v>
+        <v>-201.17</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>18406.835458</v>
+        <v>18406.835458000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.113010</v>
+        <v>5.1130100000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1310.640000</v>
+        <v>1310.6400000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.158000</v>
+        <v>-183.15799999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>18417.351141</v>
+        <v>18417.351140999999</v>
       </c>
       <c r="V15" s="1">
-        <v>5.115931</v>
+        <v>5.1159309999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1323.340000</v>
+        <v>1323.34</v>
       </c>
       <c r="X15" s="1">
-        <v>-169.867000</v>
+        <v>-169.86699999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>18427.537480</v>
+        <v>18427.537479999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.118760</v>
+        <v>5.11876</v>
       </c>
       <c r="AB15" s="1">
-        <v>1340.490000</v>
+        <v>1340.49</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.143000</v>
+        <v>-168.143</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>18438.027898</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.121674</v>
+        <v>5.1216739999999996</v>
       </c>
       <c r="AG15" s="1">
-        <v>1352.910000</v>
+        <v>1352.91</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.260000</v>
+        <v>-178.26</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>18449.100060</v>
+        <v>18449.100060000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.124750</v>
+        <v>5.1247499999999997</v>
       </c>
       <c r="AL15" s="1">
-        <v>1373.520000</v>
+        <v>1373.52</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.492000</v>
+        <v>-208.49199999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>18459.893532</v>
+        <v>18459.893531999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.127748</v>
+        <v>5.1277480000000004</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1395.180000</v>
+        <v>1395.18</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.708000</v>
+        <v>-252.708</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>18470.944366</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.130818</v>
+        <v>5.1308179999999997</v>
       </c>
       <c r="AV15" s="1">
-        <v>1419.760000</v>
+        <v>1419.76</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.125000</v>
+        <v>-313.125</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>18481.943183</v>
+        <v>18481.943182999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.133873</v>
+        <v>5.1338730000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>1439.220000</v>
+        <v>1439.22</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.481000</v>
+        <v>-365.48099999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>18492.913168</v>
+        <v>18492.913167999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.136920</v>
+        <v>5.1369199999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1525.030000</v>
+        <v>1525.03</v>
       </c>
       <c r="BG15" s="1">
-        <v>-614.715000</v>
+        <v>-614.71500000000003</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>18504.867745</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.140241</v>
+        <v>5.1402409999999996</v>
       </c>
       <c r="BK15" s="1">
-        <v>1680.160000</v>
+        <v>1680.16</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1060.860000</v>
+        <v>-1060.8599999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>18515.796594</v>
+        <v>18515.796593999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.143277</v>
+        <v>5.1432770000000003</v>
       </c>
       <c r="BP15" s="1">
-        <v>1976.320000</v>
+        <v>1976.32</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1833.410000</v>
+        <v>-1833.41</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>18526.377254</v>
+        <v>18526.377253999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.146216</v>
+        <v>5.1462159999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2364.920000</v>
+        <v>2364.92</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2722.420000</v>
+        <v>-2722.42</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>18537.277334</v>
+        <v>18537.277333999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.149244</v>
+        <v>5.1492440000000004</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2853.320000</v>
+        <v>2853.32</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3696.020000</v>
+        <v>-3696.02</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>18549.549350</v>
+        <v>18549.549350000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.152653</v>
+        <v>5.1526529999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4292.460000</v>
+        <v>4292.46</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6041.900000</v>
+        <v>-6041.9</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>18376.723835</v>
+        <v>18376.723835000001</v>
       </c>
       <c r="B16" s="1">
-        <v>5.104646</v>
+        <v>5.1046459999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1239.700000</v>
+        <v>1239.7</v>
       </c>
       <c r="D16" s="1">
-        <v>-305.284000</v>
+        <v>-305.28399999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>18386.781214</v>
+        <v>18386.781213999999</v>
       </c>
       <c r="G16" s="1">
-        <v>5.107439</v>
+        <v>5.1074390000000003</v>
       </c>
       <c r="H16" s="1">
-        <v>1264.840000</v>
+        <v>1264.8399999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-263.320000</v>
+        <v>-263.32</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>18396.940769</v>
+        <v>18396.940769000001</v>
       </c>
       <c r="L16" s="1">
-        <v>5.110261</v>
+        <v>5.1102610000000004</v>
       </c>
       <c r="M16" s="1">
-        <v>1299.060000</v>
+        <v>1299.06</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.151000</v>
+        <v>-201.15100000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>18407.183186</v>
+        <v>18407.183185999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.113106</v>
+        <v>5.1131060000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1310.620000</v>
+        <v>1310.6199999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.243000</v>
+        <v>-183.24299999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>18417.695396</v>
+        <v>18417.695395999999</v>
       </c>
       <c r="V16" s="1">
-        <v>5.116026</v>
+        <v>5.1160259999999997</v>
       </c>
       <c r="W16" s="1">
-        <v>1323.340000</v>
+        <v>1323.34</v>
       </c>
       <c r="X16" s="1">
-        <v>-169.878000</v>
+        <v>-169.87799999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>18427.913975</v>
+        <v>18427.913974999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.118865</v>
+        <v>5.1188650000000004</v>
       </c>
       <c r="AB16" s="1">
-        <v>1340.220000</v>
+        <v>1340.22</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.204000</v>
+        <v>-168.20400000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>18438.711352</v>
+        <v>18438.711351999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.121864</v>
+        <v>5.1218640000000004</v>
       </c>
       <c r="AG16" s="1">
-        <v>1353.040000</v>
+        <v>1353.04</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.868000</v>
+        <v>-177.86799999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>18449.455690</v>
+        <v>18449.455689999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.124849</v>
+        <v>5.1248490000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1373.500000</v>
+        <v>1373.5</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.499000</v>
+        <v>-208.499</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>18460.271451</v>
+        <v>18460.271451000001</v>
       </c>
       <c r="AP16" s="1">
         <v>5.127853</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1395.160000</v>
+        <v>1395.16</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.729000</v>
+        <v>-252.72900000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>18471.308958</v>
+        <v>18471.308958000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.130919</v>
+        <v>5.1309189999999996</v>
       </c>
       <c r="AV16" s="1">
-        <v>1419.780000</v>
+        <v>1419.78</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.109000</v>
+        <v>-313.10899999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>18482.600846</v>
+        <v>18482.600846000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.134056</v>
+        <v>5.1340560000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1439.210000</v>
+        <v>1439.21</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.443000</v>
+        <v>-365.44299999999998</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>18493.582272</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.137106</v>
+        <v>5.1371060000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1524.990000</v>
+        <v>1524.99</v>
       </c>
       <c r="BG16" s="1">
-        <v>-614.687000</v>
+        <v>-614.68700000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>18504.977857</v>
+        <v>18504.977857000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.140272</v>
+        <v>5.1402720000000004</v>
       </c>
       <c r="BK16" s="1">
-        <v>1680.090000</v>
+        <v>1680.09</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1060.960000</v>
+        <v>-1060.96</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>18516.212738</v>
+        <v>18516.212737999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.143392</v>
+        <v>5.1433920000000004</v>
       </c>
       <c r="BP16" s="1">
-        <v>1976.180000</v>
+        <v>1976.18</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1833.420000</v>
+        <v>-1833.42</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>18526.789961</v>
+        <v>18526.789960999999</v>
       </c>
       <c r="BT16" s="1">
         <v>5.146331</v>
       </c>
       <c r="BU16" s="1">
-        <v>2365.450000</v>
+        <v>2365.4499999999998</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2722.070000</v>
+        <v>-2722.07</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>18537.723237</v>
+        <v>18537.723236999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.149368</v>
+        <v>5.1493679999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2853.180000</v>
+        <v>2853.18</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3695.630000</v>
+        <v>-3695.63</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>18550.107349</v>
+        <v>18550.107349000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.152808</v>
+        <v>5.1528080000000003</v>
       </c>
       <c r="CE16" s="1">
-        <v>4281.580000</v>
+        <v>4281.58</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6039.770000</v>
+        <v>-6039.77</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>18376.988735</v>
+        <v>18376.988734999999</v>
       </c>
       <c r="B17" s="1">
-        <v>5.104719</v>
+        <v>5.1047190000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>1239.600000</v>
+        <v>1239.5999999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-305.271000</v>
+        <v>-305.27100000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>18387.125469</v>
+        <v>18387.125468999999</v>
       </c>
       <c r="G17" s="1">
-        <v>5.107535</v>
+        <v>5.1075350000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>1264.320000</v>
+        <v>1264.32</v>
       </c>
       <c r="I17" s="1">
-        <v>-263.540000</v>
+        <v>-263.54000000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>18397.286015</v>
+        <v>18397.286015000001</v>
       </c>
       <c r="L17" s="1">
-        <v>5.110357</v>
+        <v>5.1103569999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>1298.700000</v>
+        <v>1298.7</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.219000</v>
+        <v>-201.21899999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>18407.534323</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.113204</v>
+        <v>5.1132039999999996</v>
       </c>
       <c r="R17" s="1">
-        <v>1310.550000</v>
+        <v>1310.55</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.135000</v>
+        <v>-183.13499999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>18418.379844</v>
+        <v>18418.379843999999</v>
       </c>
       <c r="V17" s="1">
-        <v>5.116217</v>
+        <v>5.1162169999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1323.350000</v>
+        <v>1323.35</v>
       </c>
       <c r="X17" s="1">
-        <v>-169.886000</v>
+        <v>-169.886</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>18428.622263</v>
+        <v>18428.622263000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.119062</v>
+        <v>5.1190619999999996</v>
       </c>
       <c r="AB17" s="1">
-        <v>1340.250000</v>
+        <v>1340.25</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.138000</v>
+        <v>-168.13800000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>18439.056110</v>
+        <v>18439.056110000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.121960</v>
+        <v>5.1219599999999996</v>
       </c>
       <c r="AG17" s="1">
-        <v>1353.060000</v>
+        <v>1353.06</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.097000</v>
+        <v>-178.09700000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>18449.801438</v>
+        <v>18449.801437999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.124945</v>
+        <v>5.1249450000000003</v>
       </c>
       <c r="AL17" s="1">
-        <v>1373.540000</v>
+        <v>1373.54</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.473000</v>
+        <v>-208.47300000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>18460.660316</v>
+        <v>18460.660316000001</v>
       </c>
       <c r="AP17" s="1">
         <v>5.127961</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1395.160000</v>
+        <v>1395.16</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.723000</v>
+        <v>-252.72300000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>18471.976542</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.131105</v>
+        <v>5.1311049999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>1419.770000</v>
+        <v>1419.77</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.121000</v>
+        <v>-313.12099999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>18483.018975</v>
+        <v>18483.018974999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>5.134172</v>
+        <v>5.1341720000000004</v>
       </c>
       <c r="BA17" s="1">
-        <v>1439.220000</v>
+        <v>1439.22</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.492000</v>
+        <v>-365.49200000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>18494.023711</v>
+        <v>18494.023711000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.137229</v>
+        <v>5.1372289999999996</v>
       </c>
       <c r="BF17" s="1">
-        <v>1524.950000</v>
+        <v>1524.95</v>
       </c>
       <c r="BG17" s="1">
-        <v>-614.678000</v>
+        <v>-614.678</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>18505.342912</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.140373</v>
+        <v>5.1403730000000003</v>
       </c>
       <c r="BK17" s="1">
-        <v>1680.270000</v>
+        <v>1680.27</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1060.830000</v>
+        <v>-1060.83</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>18516.610547</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.143503</v>
+        <v>5.1435029999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1976.170000</v>
+        <v>1976.17</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1833.460000</v>
+        <v>-1833.46</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>18527.221977</v>
+        <v>18527.221977000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.146451</v>
+        <v>5.1464509999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2366.180000</v>
+        <v>2366.1799999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2722.460000</v>
+        <v>-2722.46</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>18538.155253</v>
+        <v>18538.155253000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.149488</v>
+        <v>5.1494879999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2853.140000</v>
+        <v>2853.14</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3696.040000</v>
+        <v>-3696.04</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>18550.630139</v>
+        <v>18550.630139000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.152953</v>
+        <v>5.1529530000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4293.860000</v>
+        <v>4293.8599999999997</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6033.520000</v>
+        <v>-6033.52</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>18377.330475</v>
+        <v>18377.330474999999</v>
       </c>
       <c r="B18" s="1">
-        <v>5.104814</v>
+        <v>5.1048140000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1239.660000</v>
+        <v>1239.6600000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-305.399000</v>
+        <v>-305.399</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>18387.468668</v>
+        <v>18387.468668000001</v>
       </c>
       <c r="G18" s="1">
-        <v>5.107630</v>
+        <v>5.1076300000000003</v>
       </c>
       <c r="H18" s="1">
-        <v>1264.760000</v>
+        <v>1264.76</v>
       </c>
       <c r="I18" s="1">
-        <v>-263.356000</v>
+        <v>-263.35599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>18397.977408</v>
+        <v>18397.977407999999</v>
       </c>
       <c r="L18" s="1">
-        <v>5.110549</v>
+        <v>5.1105489999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.982000</v>
+        <v>-200.982</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>18408.233185</v>
+        <v>18408.233185000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.113398</v>
+        <v>5.1133980000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1310.560000</v>
+        <v>1310.56</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.124000</v>
+        <v>-183.124</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>18418.726247</v>
+        <v>18418.726246999999</v>
       </c>
       <c r="V18" s="1">
-        <v>5.116313</v>
+        <v>5.1163129999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1323.290000</v>
+        <v>1323.29</v>
       </c>
       <c r="X18" s="1">
-        <v>-169.907000</v>
+        <v>-169.90700000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>18428.941653</v>
+        <v>18428.941653000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.119150</v>
+        <v>5.1191500000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>1340.220000</v>
+        <v>1340.22</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.109000</v>
+        <v>-168.10900000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>18439.399336</v>
+        <v>18439.399335999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.122055</v>
+        <v>5.1220549999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>1353.180000</v>
+        <v>1353.18</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.306000</v>
+        <v>-178.30600000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>18450.464553</v>
+        <v>18450.464553000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.125129</v>
+        <v>5.1251290000000003</v>
       </c>
       <c r="AL18" s="1">
-        <v>1373.530000</v>
+        <v>1373.53</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.490000</v>
+        <v>-208.49</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>18461.324458</v>
+        <v>18461.324457999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.128146</v>
+        <v>5.1281460000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1395.150000</v>
+        <v>1395.15</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.710000</v>
+        <v>-252.71</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>18472.399132</v>
+        <v>18472.399131999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.131222</v>
+        <v>5.1312220000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>1419.770000</v>
+        <v>1419.77</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.129000</v>
+        <v>-313.12900000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>18483.404871</v>
+        <v>18483.404870999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.134279</v>
+        <v>5.1342790000000003</v>
       </c>
       <c r="BA18" s="1">
-        <v>1439.200000</v>
+        <v>1439.2</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.479000</v>
+        <v>-365.47899999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>18494.383312</v>
+        <v>18494.383312000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.137329</v>
+        <v>5.1373290000000003</v>
       </c>
       <c r="BF18" s="1">
-        <v>1524.990000</v>
+        <v>1524.99</v>
       </c>
       <c r="BG18" s="1">
-        <v>-614.696000</v>
+        <v>-614.69600000000003</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>18505.716400</v>
+        <v>18505.716400000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.140477</v>
+        <v>5.1404769999999997</v>
       </c>
       <c r="BK18" s="1">
-        <v>1680.130000</v>
+        <v>1680.13</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1060.890000</v>
+        <v>-1060.8900000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>18517.034131</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.143621</v>
+        <v>5.1436210000000004</v>
       </c>
       <c r="BP18" s="1">
-        <v>1976.150000</v>
+        <v>1976.15</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1833.210000</v>
+        <v>-1833.21</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>18527.653459</v>
+        <v>18527.653459000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.146570</v>
+        <v>5.1465699999999996</v>
       </c>
       <c r="BU18" s="1">
-        <v>2366.760000</v>
+        <v>2366.7600000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2722.230000</v>
+        <v>-2722.23</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>18538.576852</v>
+        <v>18538.576851999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.149605</v>
+        <v>5.1496050000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2853.960000</v>
+        <v>2853.96</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3696.260000</v>
+        <v>-3696.26</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>18551.146469</v>
+        <v>18551.146468999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.153096</v>
+        <v>5.1530959999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>4287.540000</v>
+        <v>4287.54</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6020.120000</v>
+        <v>-6020.12</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>18377.672681</v>
       </c>
       <c r="B19" s="1">
-        <v>5.104909</v>
+        <v>5.1049090000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1239.580000</v>
+        <v>1239.58</v>
       </c>
       <c r="D19" s="1">
-        <v>-305.211000</v>
+        <v>-305.21100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>18388.159099</v>
       </c>
       <c r="G19" s="1">
-        <v>5.107822</v>
+        <v>5.1078219999999996</v>
       </c>
       <c r="H19" s="1">
-        <v>1264.520000</v>
+        <v>1264.52</v>
       </c>
       <c r="I19" s="1">
-        <v>-263.125000</v>
+        <v>-263.125</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>18398.322126</v>
+        <v>18398.322125999999</v>
       </c>
       <c r="L19" s="1">
-        <v>5.110645</v>
+        <v>5.1106449999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1298.720000</v>
+        <v>1298.72</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.774000</v>
+        <v>-200.774</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>18408.580880</v>
+        <v>18408.580880000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.113495</v>
+        <v>5.1134950000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>1310.600000</v>
+        <v>1310.5999999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.149000</v>
+        <v>-183.149</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>18419.069780</v>
+        <v>18419.069780000002</v>
       </c>
       <c r="V19" s="1">
-        <v>5.116408</v>
+        <v>5.1164079999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1323.280000</v>
+        <v>1323.28</v>
       </c>
       <c r="X19" s="1">
-        <v>-169.917000</v>
+        <v>-169.917</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>18429.598884</v>
+        <v>18429.598883999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.119333</v>
+        <v>5.1193330000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1340.310000</v>
+        <v>1340.31</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.143000</v>
+        <v>-168.143</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>18440.272295</v>
+        <v>18440.272294999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.122298</v>
+        <v>5.1222979999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1353.020000</v>
+        <v>1353.02</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.209000</v>
+        <v>-178.209</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>18450.846474</v>
+        <v>18450.846474000002</v>
       </c>
       <c r="AK19" s="1">
         <v>5.125235</v>
       </c>
       <c r="AL19" s="1">
-        <v>1373.540000</v>
+        <v>1373.54</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.472000</v>
+        <v>-208.47200000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>18461.741595</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.128262</v>
+        <v>5.1282620000000003</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1395.150000</v>
+        <v>1395.15</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.717000</v>
+        <v>-252.71700000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>18472.766667</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.131324</v>
+        <v>5.1313240000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1419.770000</v>
+        <v>1419.77</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.083000</v>
+        <v>-313.08300000000003</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>18483.764956</v>
+        <v>18483.764955999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>5.134379</v>
       </c>
       <c r="BA19" s="1">
-        <v>1439.230000</v>
+        <v>1439.23</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.480000</v>
+        <v>-365.48</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>18494.816853</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.137449</v>
+        <v>5.1374490000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1524.970000</v>
+        <v>1524.97</v>
       </c>
       <c r="BG19" s="1">
-        <v>-614.656000</v>
+        <v>-614.65599999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>18506.133039</v>
@@ -5030,392 +5446,392 @@
         <v>5.140593</v>
       </c>
       <c r="BK19" s="1">
-        <v>1680.240000</v>
+        <v>1680.24</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1060.840000</v>
+        <v>-1060.8399999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>18517.428466</v>
+        <v>18517.428466000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>5.143730</v>
+        <v>5.1437299999999997</v>
       </c>
       <c r="BP19" s="1">
-        <v>1976.200000</v>
+        <v>1976.2</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1833.350000</v>
+        <v>-1833.35</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>18528.061667</v>
+        <v>18528.061667000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.146684</v>
+        <v>5.1466839999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>2367.280000</v>
+        <v>2367.2800000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2722.190000</v>
+        <v>-2722.19</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>18538.999444</v>
+        <v>18538.999444000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.149722</v>
+        <v>5.1497219999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2853.600000</v>
+        <v>2853.6</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3696.210000</v>
+        <v>-3696.21</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>18551.664787</v>
+        <v>18551.664787000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.153240</v>
+        <v>5.1532400000000003</v>
       </c>
       <c r="CE19" s="1">
-        <v>4272.210000</v>
+        <v>4272.21</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6026.850000</v>
+        <v>-6026.85</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>18378.351737</v>
+        <v>18378.351737000001</v>
       </c>
       <c r="B20" s="1">
-        <v>5.105098</v>
+        <v>5.1050979999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1239.710000</v>
+        <v>1239.71</v>
       </c>
       <c r="D20" s="1">
-        <v>-304.947000</v>
+        <v>-304.947</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>18388.502362</v>
+        <v>18388.502361999999</v>
       </c>
       <c r="G20" s="1">
-        <v>5.107917</v>
+        <v>5.1079169999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>1264.610000</v>
+        <v>1264.6099999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-262.756000</v>
+        <v>-262.75599999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>18398.669854</v>
       </c>
       <c r="L20" s="1">
-        <v>5.110742</v>
+        <v>5.1107420000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1299.330000</v>
+        <v>1299.33</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.031000</v>
+        <v>-201.03100000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>18408.927617</v>
+        <v>18408.927617000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.113591</v>
+        <v>5.1135910000000004</v>
       </c>
       <c r="R20" s="1">
-        <v>1310.610000</v>
+        <v>1310.6099999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.129000</v>
+        <v>-183.12899999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>18419.721025</v>
+        <v>18419.721024999999</v>
       </c>
       <c r="V20" s="1">
-        <v>5.116589</v>
+        <v>5.1165890000000003</v>
       </c>
       <c r="W20" s="1">
-        <v>1323.290000</v>
+        <v>1323.29</v>
       </c>
       <c r="X20" s="1">
-        <v>-169.905000</v>
+        <v>-169.905</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>18429.985268</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.119440</v>
+        <v>5.11944</v>
       </c>
       <c r="AB20" s="1">
-        <v>1340.320000</v>
+        <v>1340.32</v>
       </c>
       <c r="AC20" s="1">
-        <v>-167.982000</v>
+        <v>-167.982</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>18440.662118</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.122406</v>
+        <v>5.1224059999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1353.060000</v>
+        <v>1353.06</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.462000</v>
+        <v>-178.46199999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>18451.194664</v>
+        <v>18451.194663999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.125332</v>
+        <v>5.1253320000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1373.530000</v>
+        <v>1373.53</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.512000</v>
+        <v>-208.512</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>18462.122255</v>
+        <v>18462.122254999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.128367</v>
+        <v>5.1283669999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1395.140000</v>
+        <v>1395.14</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.712000</v>
+        <v>-252.71199999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>18473.131228</v>
+        <v>18473.131227999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.131425</v>
+        <v>5.1314250000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1419.770000</v>
+        <v>1419.77</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.103000</v>
+        <v>-313.10300000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>18484.170722</v>
+        <v>18484.170721999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.134492</v>
+        <v>5.1344919999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1439.210000</v>
+        <v>1439.21</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.481000</v>
+        <v>-365.48099999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>18495.470045</v>
+        <v>18495.470044999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.137631</v>
+        <v>5.1376309999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1524.970000</v>
+        <v>1524.97</v>
       </c>
       <c r="BG20" s="1">
-        <v>-614.652000</v>
+        <v>-614.65200000000004</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>18506.466351</v>
+        <v>18506.466350999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.140685</v>
+        <v>5.1406850000000004</v>
       </c>
       <c r="BK20" s="1">
-        <v>1680.140000</v>
+        <v>1680.14</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1060.910000</v>
+        <v>-1060.9100000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>18517.850673</v>
+        <v>18517.850673000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.143847</v>
+        <v>5.1438470000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1976.150000</v>
+        <v>1976.15</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1833.490000</v>
+        <v>-1833.49</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>18528.492727</v>
+        <v>18528.492727000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.146804</v>
+        <v>5.1468040000000004</v>
       </c>
       <c r="BU20" s="1">
-        <v>2367.590000</v>
+        <v>2367.59</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2722.720000</v>
+        <v>-2722.72</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>18539.453283</v>
+        <v>18539.453282999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.149848</v>
+        <v>5.1498480000000004</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2853.910000</v>
+        <v>2853.91</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3695.660000</v>
+        <v>-3695.66</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>18552.185620</v>
+        <v>18552.18562</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.153385</v>
+        <v>5.1533850000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4294.010000</v>
+        <v>4294.01</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6037.710000</v>
+        <v>-6037.71</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>18378.694968</v>
       </c>
       <c r="B21" s="1">
-        <v>5.105193</v>
+        <v>5.1051929999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1239.290000</v>
+        <v>1239.29</v>
       </c>
       <c r="D21" s="1">
-        <v>-305.356000</v>
+        <v>-305.35599999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>18388.848538</v>
+        <v>18388.848537999998</v>
       </c>
       <c r="G21" s="1">
-        <v>5.108013</v>
+        <v>5.1080129999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="I21" s="1">
-        <v>-262.949000</v>
+        <v>-262.94900000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>18399.325037</v>
+        <v>18399.325036999999</v>
       </c>
       <c r="L21" s="1">
-        <v>5.110924</v>
+        <v>5.1109239999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1298.670000</v>
+        <v>1298.67</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.084000</v>
+        <v>-201.084</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>18409.585310</v>
+        <v>18409.585309999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.113774</v>
+        <v>5.1137740000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>1310.650000</v>
+        <v>1310.6500000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.289000</v>
+        <v>-183.28899999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>18420.100465</v>
@@ -5424,1101 +5840,1101 @@
         <v>5.116695</v>
       </c>
       <c r="W21" s="1">
-        <v>1323.310000</v>
+        <v>1323.31</v>
       </c>
       <c r="X21" s="1">
-        <v>-169.954000</v>
+        <v>-169.95400000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>18430.335443</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.119538</v>
+        <v>5.1195380000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>1340.180000</v>
+        <v>1340.18</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.134000</v>
+        <v>-168.13399999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>18441.002869</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.122501</v>
+        <v>5.1225009999999997</v>
       </c>
       <c r="AG21" s="1">
-        <v>1352.930000</v>
+        <v>1352.93</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.159000</v>
+        <v>-178.15899999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>18451.544344</v>
+        <v>18451.544344000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.125429</v>
+        <v>5.1254289999999996</v>
       </c>
       <c r="AL21" s="1">
-        <v>1373.510000</v>
+        <v>1373.51</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.471000</v>
+        <v>-208.471</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>18462.539657</v>
+        <v>18462.539657000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.128483</v>
+        <v>5.1284830000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1395.150000</v>
+        <v>1395.15</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.706000</v>
+        <v>-252.70599999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>18473.539471</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.131539</v>
+        <v>5.1315390000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1419.790000</v>
+        <v>1419.79</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.115000</v>
+        <v>-313.11500000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>18484.481709</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.134578</v>
+        <v>5.1345780000000003</v>
       </c>
       <c r="BA21" s="1">
-        <v>1439.200000</v>
+        <v>1439.2</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.489000</v>
+        <v>-365.48899999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>18495.858447</v>
+        <v>18495.858446999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.137738</v>
+        <v>5.1377379999999997</v>
       </c>
       <c r="BF21" s="1">
-        <v>1524.940000</v>
+        <v>1524.94</v>
       </c>
       <c r="BG21" s="1">
-        <v>-614.682000</v>
+        <v>-614.68200000000002</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>18506.842319</v>
+        <v>18506.842318999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.140790</v>
+        <v>5.14079</v>
       </c>
       <c r="BK21" s="1">
-        <v>1680.230000</v>
+        <v>1680.23</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1060.930000</v>
+        <v>-1060.93</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>18518.248319</v>
+        <v>18518.248318999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.143958</v>
+        <v>5.1439579999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1976.180000</v>
+        <v>1976.18</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1833.380000</v>
+        <v>-1833.38</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>18528.921233</v>
+        <v>18528.921233000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.146923</v>
+        <v>5.1469230000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2368.370000</v>
+        <v>2368.37</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2722.920000</v>
+        <v>-2722.92</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>18539.867970</v>
+        <v>18539.867969999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.149963</v>
+        <v>5.1499629999999996</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2853.040000</v>
+        <v>2853.04</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3695.530000</v>
+        <v>-3695.53</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>18552.722290</v>
+        <v>18552.722290000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.153534</v>
+        <v>5.1535339999999996</v>
       </c>
       <c r="CE21" s="1">
-        <v>4283.460000</v>
+        <v>4283.46</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6022.510000</v>
+        <v>-6022.51</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>18379.348694</v>
       </c>
       <c r="B22" s="1">
-        <v>5.105375</v>
+        <v>5.1053750000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>1239.810000</v>
+        <v>1239.81</v>
       </c>
       <c r="D22" s="1">
-        <v>-305.267000</v>
+        <v>-305.267</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>18389.505737</v>
+        <v>18389.505736999999</v>
       </c>
       <c r="G22" s="1">
-        <v>5.108196</v>
+        <v>5.1081960000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>1264.880000</v>
+        <v>1264.8800000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-262.831000</v>
+        <v>-262.83100000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>18399.706491</v>
+        <v>18399.706491000001</v>
       </c>
       <c r="L22" s="1">
-        <v>5.111030</v>
+        <v>5.1110300000000004</v>
       </c>
       <c r="M22" s="1">
-        <v>1298.800000</v>
+        <v>1298.8</v>
       </c>
       <c r="N22" s="1">
-        <v>-200.813000</v>
+        <v>-200.81299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>18409.973678</v>
+        <v>18409.973677999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.113882</v>
+        <v>5.1138820000000003</v>
       </c>
       <c r="R22" s="1">
-        <v>1310.540000</v>
+        <v>1310.54</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.262000</v>
+        <v>-183.262</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>18420.443201</v>
+        <v>18420.443200999998</v>
       </c>
       <c r="V22" s="1">
-        <v>5.116790</v>
+        <v>5.1167899999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1323.290000</v>
+        <v>1323.29</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.000000</v>
+        <v>-170</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>18430.681619</v>
+        <v>18430.681618999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.119634</v>
+        <v>5.1196339999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>1340.310000</v>
+        <v>1340.31</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.062000</v>
+        <v>-168.06200000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>18441.344646</v>
+        <v>18441.344646000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>5.122596</v>
+        <v>5.1225959999999997</v>
       </c>
       <c r="AG22" s="1">
-        <v>1353.080000</v>
+        <v>1353.08</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.122000</v>
+        <v>-178.12200000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>18451.957544</v>
+        <v>18451.957544000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.125544</v>
+        <v>5.1255439999999997</v>
       </c>
       <c r="AL22" s="1">
-        <v>1373.510000</v>
+        <v>1373.51</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.457000</v>
+        <v>-208.45699999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>18462.843706</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.128568</v>
+        <v>5.1285679999999996</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1395.140000</v>
+        <v>1395.14</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.691000</v>
+        <v>-252.691</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>18473.862827</v>
+        <v>18473.862827000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>5.131629</v>
+        <v>5.1316290000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1419.760000</v>
+        <v>1419.76</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.093000</v>
+        <v>-313.09300000000002</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>18484.842764</v>
+        <v>18484.842764000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.134679</v>
+        <v>5.1346790000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1439.220000</v>
+        <v>1439.22</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.448000</v>
+        <v>-365.44799999999998</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>18496.220988</v>
+        <v>18496.220988000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.137839</v>
+        <v>5.1378389999999996</v>
       </c>
       <c r="BF22" s="1">
-        <v>1524.970000</v>
+        <v>1524.97</v>
       </c>
       <c r="BG22" s="1">
-        <v>-614.689000</v>
+        <v>-614.68899999999996</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>18507.240607</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.140900</v>
+        <v>5.1409000000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1680.220000</v>
+        <v>1680.22</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1060.710000</v>
+        <v>-1060.71</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>18518.669462</v>
+        <v>18518.669462000002</v>
       </c>
       <c r="BO22" s="1">
         <v>5.144075</v>
       </c>
       <c r="BP22" s="1">
-        <v>1976.070000</v>
+        <v>1976.07</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1833.380000</v>
+        <v>-1833.38</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>18529.331921</v>
+        <v>18529.331921000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>5.147037</v>
+        <v>5.1470370000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2368.260000</v>
+        <v>2368.2600000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2723.700000</v>
+        <v>-2723.7</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>18540.324786</v>
+        <v>18540.324786000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.150090</v>
+        <v>5.1500899999999996</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2852.900000</v>
+        <v>2852.9</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3695.670000</v>
+        <v>-3695.67</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>18553.264168</v>
+        <v>18553.264168000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.153684</v>
+        <v>5.1536840000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>4274.970000</v>
+        <v>4274.97</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6038.300000</v>
+        <v>-6038.3</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>18379.711239</v>
       </c>
       <c r="B23" s="1">
-        <v>5.105475</v>
+        <v>5.1054750000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1239.480000</v>
+        <v>1239.48</v>
       </c>
       <c r="D23" s="1">
-        <v>-305.287000</v>
+        <v>-305.28699999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>18389.881210</v>
+        <v>18389.88121</v>
       </c>
       <c r="G23" s="1">
-        <v>5.108300</v>
+        <v>5.1082999999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1265.400000</v>
+        <v>1265.4000000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.038000</v>
+        <v>-264.03800000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>18400.053165</v>
+        <v>18400.053165000001</v>
       </c>
       <c r="L23" s="1">
-        <v>5.111126</v>
+        <v>5.1111259999999996</v>
       </c>
       <c r="M23" s="1">
-        <v>1298.820000</v>
+        <v>1298.82</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.545000</v>
+        <v>-201.54499999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>18410.324815</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.113979</v>
+        <v>5.1139789999999996</v>
       </c>
       <c r="R23" s="1">
-        <v>1310.540000</v>
+        <v>1310.54</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.136000</v>
+        <v>-183.136</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>18420.785440</v>
+        <v>18420.78544</v>
       </c>
       <c r="V23" s="1">
-        <v>5.116885</v>
+        <v>5.1168849999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1323.280000</v>
+        <v>1323.28</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.001000</v>
+        <v>-170.001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>18431.097298</v>
+        <v>18431.097298000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.119749</v>
+        <v>5.1197489999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>1340.250000</v>
+        <v>1340.25</v>
       </c>
       <c r="AC23" s="1">
-        <v>-167.993000</v>
+        <v>-167.99299999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>18441.766212</v>
+        <v>18441.766211999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.122713</v>
+        <v>5.1227130000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1353.020000</v>
+        <v>1353.02</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.268000</v>
+        <v>-178.268</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>18452.252167</v>
+        <v>18452.252166999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.125626</v>
+        <v>5.1256259999999996</v>
       </c>
       <c r="AL23" s="1">
-        <v>1373.520000</v>
+        <v>1373.52</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.481000</v>
+        <v>-208.48099999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>18463.203305</v>
+        <v>18463.203304999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.128668</v>
+        <v>5.1286680000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1395.140000</v>
+        <v>1395.14</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.656000</v>
+        <v>-252.65600000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>18474.223913</v>
+        <v>18474.223913000002</v>
       </c>
       <c r="AU23" s="1">
         <v>5.131729</v>
       </c>
       <c r="AV23" s="1">
-        <v>1419.810000</v>
+        <v>1419.81</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.057000</v>
+        <v>-313.05700000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>18485.202364</v>
+        <v>18485.202364000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.134778</v>
+        <v>5.1347779999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1439.210000</v>
+        <v>1439.21</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.483000</v>
+        <v>-365.483</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>18496.942667</v>
+        <v>18496.942666999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.138040</v>
+        <v>5.1380400000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1524.960000</v>
+        <v>1524.96</v>
       </c>
       <c r="BG23" s="1">
-        <v>-614.660000</v>
+        <v>-614.66</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>18507.989101</v>
+        <v>18507.989100999999</v>
       </c>
       <c r="BJ23" s="1">
         <v>5.141108</v>
       </c>
       <c r="BK23" s="1">
-        <v>1680.010000</v>
+        <v>1680.01</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1060.910000</v>
+        <v>-1060.9100000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>18519.065726</v>
+        <v>18519.065726000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.144185</v>
+        <v>5.1441850000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1976.170000</v>
+        <v>1976.17</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1833.250000</v>
+        <v>-1833.25</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>18529.761457</v>
+        <v>18529.761457000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.147156</v>
+        <v>5.1471559999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>2368.700000</v>
+        <v>2368.6999999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2724.150000</v>
+        <v>-2724.15</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>18540.773138</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.150215</v>
+        <v>5.1502150000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2853.230000</v>
+        <v>2853.23</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3695.330000</v>
+        <v>-3695.33</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>18554.109600</v>
+        <v>18554.1096</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.153919</v>
+        <v>5.1539190000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4280.290000</v>
+        <v>4280.29</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6018.610000</v>
+        <v>-6018.61</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>18380.063894</v>
+        <v>18380.063893999999</v>
       </c>
       <c r="B24" s="1">
-        <v>5.105573</v>
+        <v>5.1055729999999997</v>
       </c>
       <c r="C24" s="1">
-        <v>1239.380000</v>
+        <v>1239.3800000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-305.267000</v>
+        <v>-305.267</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>18390.226922</v>
+        <v>18390.226922000002</v>
       </c>
       <c r="G24" s="1">
-        <v>5.108396</v>
+        <v>5.1083959999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1264.630000</v>
+        <v>1264.6300000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-263.319000</v>
+        <v>-263.31900000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>18400.397387</v>
+        <v>18400.397387000001</v>
       </c>
       <c r="L24" s="1">
-        <v>5.111221</v>
+        <v>5.1112209999999996</v>
       </c>
       <c r="M24" s="1">
-        <v>1298.930000</v>
+        <v>1298.93</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.845000</v>
+        <v>-200.845</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>18410.679950</v>
+        <v>18410.679950000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.114078</v>
+        <v>5.1140780000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1310.590000</v>
+        <v>1310.5899999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.095000</v>
+        <v>-183.095</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>18421.204063</v>
+        <v>18421.204063000001</v>
       </c>
       <c r="V24" s="1">
-        <v>5.117001</v>
+        <v>5.1170010000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1323.370000</v>
+        <v>1323.37</v>
       </c>
       <c r="X24" s="1">
-        <v>-169.915000</v>
+        <v>-169.91499999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>18431.380979</v>
+        <v>18431.380979000001</v>
       </c>
       <c r="AA24" s="1">
         <v>5.119828</v>
       </c>
       <c r="AB24" s="1">
-        <v>1340.290000</v>
+        <v>1340.29</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.048000</v>
+        <v>-168.048</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>18442.055876</v>
+        <v>18442.055875999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.122793</v>
+        <v>5.1227929999999997</v>
       </c>
       <c r="AG24" s="1">
-        <v>1353.040000</v>
+        <v>1353.04</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.070000</v>
+        <v>-178.07</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>18452.600326</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.125722</v>
+        <v>5.1257219999999997</v>
       </c>
       <c r="AL24" s="1">
-        <v>1373.520000</v>
+        <v>1373.52</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.498000</v>
+        <v>-208.49799999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>18463.562407</v>
+        <v>18463.562407000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.128767</v>
+        <v>5.1287669999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1395.170000</v>
+        <v>1395.17</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.728000</v>
+        <v>-252.72800000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>18474.590954</v>
+        <v>18474.590953999999</v>
       </c>
       <c r="AU24" s="1">
         <v>5.131831</v>
       </c>
       <c r="AV24" s="1">
-        <v>1419.750000</v>
+        <v>1419.75</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.085000</v>
+        <v>-313.08499999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>18485.923546</v>
+        <v>18485.923546000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.134979</v>
+        <v>5.1349790000000004</v>
       </c>
       <c r="BA24" s="1">
-        <v>1439.230000</v>
+        <v>1439.23</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.454000</v>
+        <v>-365.45400000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>18497.331532</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.138148</v>
+        <v>5.1381480000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1524.990000</v>
+        <v>1524.99</v>
       </c>
       <c r="BG24" s="1">
-        <v>-614.645000</v>
+        <v>-614.64499999999998</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>18508.392844</v>
+        <v>18508.392844000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.141220</v>
+        <v>5.1412199999999997</v>
       </c>
       <c r="BK24" s="1">
-        <v>1680.270000</v>
+        <v>1680.27</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1060.780000</v>
+        <v>-1060.78</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>18519.485870</v>
+        <v>18519.48587</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.144302</v>
+        <v>5.1443019999999997</v>
       </c>
       <c r="BP24" s="1">
-        <v>1976.170000</v>
+        <v>1976.17</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1833.260000</v>
+        <v>-1833.26</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>18530.493055</v>
+        <v>18530.493054999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.147359</v>
+        <v>5.1473589999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>2368.090000</v>
+        <v>2368.09</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2724.560000</v>
+        <v>-2724.56</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>18541.507216</v>
+        <v>18541.507216000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>5.150419</v>
+        <v>5.1504190000000003</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2852.410000</v>
+        <v>2852.41</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3694.810000</v>
+        <v>-3694.81</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>18554.343184</v>
+        <v>18554.343184000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.153984</v>
+        <v>5.1539840000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>4281.310000</v>
+        <v>4281.3100000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6019.540000</v>
+        <v>-6019.54</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>18380.409111</v>
+        <v>18380.409111000001</v>
       </c>
       <c r="B25" s="1">
-        <v>5.105669</v>
+        <v>5.1056689999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1239.850000</v>
+        <v>1239.8499999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-305.206000</v>
+        <v>-305.20600000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>18390.569193</v>
+        <v>18390.569192999999</v>
       </c>
       <c r="G25" s="1">
-        <v>5.108491</v>
+        <v>5.1084909999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1264.390000</v>
+        <v>1264.3900000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-262.409000</v>
+        <v>-262.40899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>18400.819482</v>
+        <v>18400.819481999999</v>
       </c>
       <c r="L25" s="1">
-        <v>5.111339</v>
+        <v>5.1113390000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1299.070000</v>
+        <v>1299.07</v>
       </c>
       <c r="N25" s="1">
-        <v>-200.973000</v>
+        <v>-200.97300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>18411.098573</v>
+        <v>18411.098572999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.114194</v>
+        <v>5.1141940000000004</v>
       </c>
       <c r="R25" s="1">
-        <v>1310.640000</v>
+        <v>1310.6400000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.166000</v>
+        <v>-183.166</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>18421.494256</v>
+        <v>18421.494256000002</v>
       </c>
       <c r="V25" s="1">
-        <v>5.117082</v>
+        <v>5.1170819999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1323.270000</v>
+        <v>1323.27</v>
       </c>
       <c r="X25" s="1">
-        <v>-169.875000</v>
+        <v>-169.875</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>18431.726689</v>
+        <v>18431.726688999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.119924</v>
+        <v>5.1199240000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1340.120000</v>
+        <v>1340.12</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.162000</v>
+        <v>-168.16200000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>18442.398117</v>
+        <v>18442.398117000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.122888</v>
+        <v>5.1228879999999997</v>
       </c>
       <c r="AG25" s="1">
-        <v>1352.970000</v>
+        <v>1352.97</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.201000</v>
+        <v>-178.20099999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>18452.945543</v>
+        <v>18452.945543000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.125818</v>
+        <v>5.1258179999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1373.500000</v>
+        <v>1373.5</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.475000</v>
+        <v>-208.47499999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>18464.281147</v>
+        <v>18464.281147000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.128967</v>
+        <v>5.1289670000000003</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1395.150000</v>
+        <v>1395.15</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.700000</v>
+        <v>-252.7</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>18475.321076</v>
@@ -6527,13 +6943,13 @@
         <v>5.132034</v>
       </c>
       <c r="AV25" s="1">
-        <v>1419.770000</v>
+        <v>1419.77</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.074000</v>
+        <v>-313.07400000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>18486.301001</v>
@@ -6542,240 +6958,240 @@
         <v>5.135084</v>
       </c>
       <c r="BA25" s="1">
-        <v>1439.200000</v>
+        <v>1439.2</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.505000</v>
+        <v>-365.505</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>18497.691659</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.138248</v>
+        <v>5.1382479999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1524.980000</v>
+        <v>1524.98</v>
       </c>
       <c r="BG25" s="1">
-        <v>-614.629000</v>
+        <v>-614.62900000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>18508.770765</v>
+        <v>18508.770765000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.141325</v>
+        <v>5.1413250000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1680.110000</v>
+        <v>1680.11</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1060.930000</v>
+        <v>-1060.93</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>18520.179741</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.144494</v>
+        <v>5.1444939999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1976.160000</v>
+        <v>1976.16</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1833.360000</v>
+        <v>-1833.36</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>18530.639871</v>
+        <v>18530.639870999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.147400</v>
+        <v>5.1474000000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>2368.240000</v>
+        <v>2368.2399999999998</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2725.170000</v>
+        <v>-2725.17</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>18541.644641</v>
+        <v>18541.644640999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.150457</v>
+        <v>5.1504570000000003</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2852.740000</v>
+        <v>2852.74</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3694.650000</v>
+        <v>-3694.65</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>18554.860512</v>
+        <v>18554.860511999999</v>
       </c>
       <c r="CD25" s="1">
         <v>5.154128</v>
       </c>
       <c r="CE25" s="1">
-        <v>4275.070000</v>
+        <v>4275.07</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6031.860000</v>
+        <v>-6031.86</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>18380.836662</v>
+        <v>18380.836662000002</v>
       </c>
       <c r="B26" s="1">
-        <v>5.105788</v>
+        <v>5.1057880000000004</v>
       </c>
       <c r="C26" s="1">
-        <v>1239.530000</v>
+        <v>1239.53</v>
       </c>
       <c r="D26" s="1">
-        <v>-305.314000</v>
+        <v>-305.31400000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>18390.989272</v>
+        <v>18390.989271999999</v>
       </c>
       <c r="G26" s="1">
-        <v>5.108608</v>
+        <v>5.1086080000000003</v>
       </c>
       <c r="H26" s="1">
-        <v>1265.590000</v>
+        <v>1265.5899999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-262.449000</v>
+        <v>-262.44900000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>18401.112122</v>
+        <v>18401.112121999999</v>
       </c>
       <c r="L26" s="1">
-        <v>5.111420</v>
+        <v>5.1114199999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1299.200000</v>
+        <v>1299.2</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.177000</v>
+        <v>-201.17699999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>18411.383772</v>
+        <v>18411.383772000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.114273</v>
+        <v>5.1142729999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>1310.610000</v>
+        <v>1310.6099999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.178000</v>
+        <v>-183.178</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>18421.837951</v>
+        <v>18421.837951000001</v>
       </c>
       <c r="V26" s="1">
-        <v>5.117177</v>
+        <v>5.1171769999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1323.340000</v>
+        <v>1323.34</v>
       </c>
       <c r="X26" s="1">
-        <v>-169.879000</v>
+        <v>-169.87899999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>18432.082321</v>
+        <v>18432.082321000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.120023</v>
+        <v>5.1200229999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1340.250000</v>
+        <v>1340.25</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.167000</v>
+        <v>-168.167</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>18442.741385</v>
+        <v>18442.741385000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.122984</v>
+        <v>5.1229839999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1352.940000</v>
+        <v>1352.94</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.090000</v>
+        <v>-178.09</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>18453.648373</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.126013</v>
+        <v>5.1260130000000004</v>
       </c>
       <c r="AL26" s="1">
-        <v>1373.510000</v>
+        <v>1373.51</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.470000</v>
+        <v>-208.47</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>18464.641730</v>
+        <v>18464.641729999999</v>
       </c>
       <c r="AP26" s="1">
         <v>5.129067</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1395.150000</v>
+        <v>1395.15</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.745000</v>
+        <v>-252.745</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>18475.710423</v>
@@ -6784,120 +7200,121 @@
         <v>5.132142</v>
       </c>
       <c r="AV26" s="1">
-        <v>1419.780000</v>
+        <v>1419.78</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.060000</v>
+        <v>-313.06</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>18486.679945</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.135189</v>
+        <v>5.1351889999999996</v>
       </c>
       <c r="BA26" s="1">
-        <v>1439.180000</v>
+        <v>1439.18</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.461000</v>
+        <v>-365.46100000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>18498.350351</v>
+        <v>18498.350351000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.138431</v>
+        <v>5.1384309999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1525.000000</v>
+        <v>1525</v>
       </c>
       <c r="BG26" s="1">
-        <v>-614.650000</v>
+        <v>-614.65</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>18509.449818</v>
+        <v>18509.449818000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.141514</v>
+        <v>5.1415139999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1680.160000</v>
+        <v>1680.16</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1060.910000</v>
+        <v>-1060.9100000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>18520.321598</v>
+        <v>18520.321597999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.144534</v>
+        <v>5.1445340000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1976.140000</v>
+        <v>1976.14</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1833.150000</v>
+        <v>-1833.15</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>18531.049400</v>
+        <v>18531.0494</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.147514</v>
+        <v>5.1475140000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2367.590000</v>
+        <v>2367.59</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2725.660000</v>
+        <v>-2725.66</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>18542.071664</v>
+        <v>18542.071663999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.150575</v>
+        <v>5.1505749999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2852.240000</v>
+        <v>2852.24</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3695.270000</v>
+        <v>-3695.27</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>18555.380572</v>
+        <v>18555.380571999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.154272</v>
+        <v>5.1542719999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>4287.050000</v>
+        <v>4287.05</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6037.920000</v>
+        <v>-6037.92</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>